--- a/Data.xlsx
+++ b/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Library" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1669" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="703">
   <si>
     <t>name</t>
   </si>
@@ -109,622 +109,10 @@
     <t>CID</t>
   </si>
   <si>
-    <r>
-      <t>name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
     <t>tel</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Butt</t>
-  </si>
-  <si>
-    <t>Josephine</t>
-  </si>
-  <si>
-    <t>Darakjy</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Venere</t>
-  </si>
-  <si>
-    <t>Lenna</t>
-  </si>
-  <si>
-    <t>Paprocki</t>
-  </si>
-  <si>
-    <t>Donette</t>
-  </si>
-  <si>
-    <t>Foller</t>
-  </si>
-  <si>
-    <t>Simona</t>
-  </si>
-  <si>
-    <t>Morasca</t>
-  </si>
-  <si>
-    <t>Mitsue</t>
-  </si>
-  <si>
-    <t>Tollner</t>
-  </si>
-  <si>
-    <t>Leota</t>
-  </si>
-  <si>
-    <t>Dilliard</t>
-  </si>
-  <si>
-    <t>Sage</t>
-  </si>
-  <si>
-    <t>Wieser</t>
-  </si>
-  <si>
-    <t>Kris</t>
-  </si>
-  <si>
-    <t>Marrier</t>
-  </si>
-  <si>
-    <t>Minna</t>
-  </si>
-  <si>
-    <t>Amigon</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Maclead</t>
-  </si>
-  <si>
-    <t>Kiley</t>
-  </si>
-  <si>
-    <t>Caldarera</t>
-  </si>
-  <si>
-    <t>Graciela</t>
-  </si>
-  <si>
-    <t>Ruta</t>
-  </si>
-  <si>
-    <t>Cammy</t>
-  </si>
-  <si>
-    <t>Albares</t>
-  </si>
-  <si>
-    <t>Mattie</t>
-  </si>
-  <si>
-    <t>Poquette</t>
-  </si>
-  <si>
-    <t>Meaghan</t>
-  </si>
-  <si>
-    <t>Garufi</t>
-  </si>
-  <si>
-    <t>Gladys</t>
-  </si>
-  <si>
-    <t>Rim</t>
-  </si>
-  <si>
-    <t>Yuki</t>
-  </si>
-  <si>
-    <t>Whobrey</t>
-  </si>
-  <si>
-    <t>Fletcher</t>
-  </si>
-  <si>
-    <t>Flosi</t>
-  </si>
-  <si>
-    <t>Bette</t>
-  </si>
-  <si>
-    <t>Nicka</t>
-  </si>
-  <si>
-    <t>Veronika</t>
-  </si>
-  <si>
-    <t>Inouye</t>
-  </si>
-  <si>
-    <t>Willard</t>
-  </si>
-  <si>
-    <t>Kolmetz</t>
-  </si>
-  <si>
-    <t>Maryann</t>
-  </si>
-  <si>
-    <t>Royster</t>
-  </si>
-  <si>
-    <t>Alisha</t>
-  </si>
-  <si>
-    <t>Slusarski</t>
-  </si>
-  <si>
-    <t>Allene</t>
-  </si>
-  <si>
-    <t>Iturbide</t>
-  </si>
-  <si>
-    <t>Chanel</t>
-  </si>
-  <si>
-    <t>Caudy</t>
-  </si>
-  <si>
-    <t>Ezekiel</t>
-  </si>
-  <si>
-    <t>Chui</t>
-  </si>
-  <si>
-    <t>Willow</t>
-  </si>
-  <si>
-    <t>Kusko</t>
-  </si>
-  <si>
-    <t>Bernardo</t>
-  </si>
-  <si>
-    <t>Figeroa</t>
-  </si>
-  <si>
-    <t>Ammie</t>
-  </si>
-  <si>
-    <t>Corrio</t>
-  </si>
-  <si>
-    <t>Francine</t>
-  </si>
-  <si>
-    <t>Vocelka</t>
-  </si>
-  <si>
-    <t>Ernie</t>
-  </si>
-  <si>
-    <t>Stenseth</t>
-  </si>
-  <si>
-    <t>Albina</t>
-  </si>
-  <si>
-    <t>Glick</t>
-  </si>
-  <si>
-    <t>Alishia</t>
-  </si>
-  <si>
-    <t>Sergi</t>
-  </si>
-  <si>
-    <t>Solange</t>
-  </si>
-  <si>
-    <t>Shinko</t>
-  </si>
-  <si>
-    <t>Jose</t>
-  </si>
-  <si>
-    <t>Stockham</t>
-  </si>
-  <si>
-    <t>Rozella</t>
-  </si>
-  <si>
-    <t>Ostrosky</t>
-  </si>
-  <si>
-    <t>Valentine</t>
-  </si>
-  <si>
-    <t>Gillian</t>
-  </si>
-  <si>
-    <t>Kati</t>
-  </si>
-  <si>
-    <t>Rulapaugh</t>
-  </si>
-  <si>
-    <t>Youlanda</t>
-  </si>
-  <si>
-    <t>Schemmer</t>
-  </si>
-  <si>
-    <t>Dyan</t>
-  </si>
-  <si>
-    <t>Oldroyd</t>
-  </si>
-  <si>
-    <t>Roxane</t>
-  </si>
-  <si>
-    <t>Campain</t>
-  </si>
-  <si>
-    <t>Lavera</t>
-  </si>
-  <si>
-    <t>Perin</t>
-  </si>
-  <si>
-    <t>Erick</t>
-  </si>
-  <si>
-    <t>Ferencz</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>Saylors</t>
-  </si>
-  <si>
-    <t>Jina</t>
-  </si>
-  <si>
-    <t>Briddick</t>
-  </si>
-  <si>
-    <t>Kanisha</t>
-  </si>
-  <si>
-    <t>Waycott</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Bowley</t>
-  </si>
-  <si>
-    <t>Blair</t>
-  </si>
-  <si>
-    <t>Malet</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>Bolognia</t>
-  </si>
-  <si>
-    <t>Lorrie</t>
-  </si>
-  <si>
-    <t>Nestle</t>
-  </si>
-  <si>
-    <t>Sabra</t>
-  </si>
-  <si>
-    <t>Uyetake</t>
-  </si>
-  <si>
-    <t>Marjory</t>
-  </si>
-  <si>
-    <t>Mastella</t>
-  </si>
-  <si>
-    <t>Karl</t>
-  </si>
-  <si>
-    <t>Klonowski</t>
-  </si>
-  <si>
-    <t>Tonette</t>
-  </si>
-  <si>
-    <t>Wenner</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Monarrez</t>
-  </si>
-  <si>
-    <t>Shenika</t>
-  </si>
-  <si>
-    <t>Seewald</t>
-  </si>
-  <si>
-    <t>Delmy</t>
-  </si>
-  <si>
-    <t>Ahle</t>
-  </si>
-  <si>
-    <t>Deeanna</t>
-  </si>
-  <si>
-    <t>Juhas</t>
-  </si>
-  <si>
-    <t>Blondell</t>
-  </si>
-  <si>
-    <t>Pugh</t>
-  </si>
-  <si>
-    <t>Jamal</t>
-  </si>
-  <si>
-    <t>Vanausdal</t>
-  </si>
-  <si>
-    <t>Cecily</t>
-  </si>
-  <si>
-    <t>Hollack</t>
-  </si>
-  <si>
-    <t>Carmelina</t>
-  </si>
-  <si>
-    <t>Lindall</t>
-  </si>
-  <si>
-    <t>Maurine</t>
-  </si>
-  <si>
-    <t>Yglesias</t>
-  </si>
-  <si>
-    <t>Tawna</t>
-  </si>
-  <si>
-    <t>Buvens</t>
-  </si>
-  <si>
-    <t>Penney</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Elly</t>
-  </si>
-  <si>
-    <t>Morocco</t>
-  </si>
-  <si>
-    <t>Ilene</t>
-  </si>
-  <si>
-    <t>Eroman</t>
-  </si>
-  <si>
-    <t>Vallie</t>
-  </si>
-  <si>
-    <t>Mondella</t>
-  </si>
-  <si>
-    <t>Kallie</t>
-  </si>
-  <si>
-    <t>Blackwood</t>
-  </si>
-  <si>
-    <t>Johnetta</t>
-  </si>
-  <si>
-    <t>Abdallah</t>
-  </si>
-  <si>
-    <t>Bobbye</t>
-  </si>
-  <si>
-    <t>Rhym</t>
-  </si>
-  <si>
-    <t>Micaela</t>
-  </si>
-  <si>
-    <t>Rhymes</t>
-  </si>
-  <si>
-    <t>Tamar</t>
-  </si>
-  <si>
-    <t>Hoogland</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Parlato</t>
-  </si>
-  <si>
-    <t>Laurel</t>
-  </si>
-  <si>
-    <t>Reitler</t>
-  </si>
-  <si>
-    <t>Delisa</t>
-  </si>
-  <si>
-    <t>Crupi</t>
-  </si>
-  <si>
-    <t>Viva</t>
-  </si>
-  <si>
-    <t>Toelkes</t>
-  </si>
-  <si>
-    <t>Elza</t>
-  </si>
-  <si>
-    <t>Lipke</t>
-  </si>
-  <si>
-    <t>Devorah</t>
-  </si>
-  <si>
-    <t>Chickering</t>
-  </si>
-  <si>
-    <t>Timothy</t>
-  </si>
-  <si>
-    <t>Mulqueen</t>
-  </si>
-  <si>
-    <t>Arlette</t>
-  </si>
-  <si>
-    <t>Honeywell</t>
-  </si>
-  <si>
-    <t>Dominque</t>
-  </si>
-  <si>
-    <t>Dickerson</t>
-  </si>
-  <si>
-    <t>Lettie</t>
-  </si>
-  <si>
-    <t>Isenhower</t>
-  </si>
-  <si>
-    <t>Myra</t>
-  </si>
-  <si>
-    <t>Munns</t>
-  </si>
-  <si>
-    <t>Stephaine</t>
-  </si>
-  <si>
-    <t>Barfield</t>
-  </si>
-  <si>
-    <t>Lai</t>
-  </si>
-  <si>
-    <t>Gato</t>
-  </si>
-  <si>
-    <t>Stephen</t>
-  </si>
-  <si>
-    <t>Emigh</t>
-  </si>
-  <si>
-    <t>Tyra</t>
-  </si>
-  <si>
-    <t>Shields</t>
-  </si>
-  <si>
-    <t>Tammara</t>
-  </si>
-  <si>
-    <t>Wardrip</t>
-  </si>
-  <si>
-    <t>Cory</t>
-  </si>
-  <si>
-    <t>Gibes</t>
-  </si>
-  <si>
-    <t>Danica</t>
-  </si>
-  <si>
-    <t>Bruschke</t>
-  </si>
-  <si>
-    <t>Wilda</t>
-  </si>
-  <si>
-    <t>Giguere</t>
-  </si>
-  <si>
-    <t>Elvera</t>
-  </si>
-  <si>
-    <t>Benimadho</t>
-  </si>
-  <si>
-    <t>Carma</t>
-  </si>
-  <si>
-    <t>Vanheusen</t>
-  </si>
-  <si>
-    <t>Malinda</t>
-  </si>
-  <si>
-    <t>Hochard</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Fern</t>
-  </si>
-  <si>
-    <t>Lisha</t>
-  </si>
-  <si>
-    <t>Centini</t>
-  </si>
-  <si>
-    <t>surname</t>
   </si>
   <si>
     <t>6649 N Blue Gum St</t>
@@ -2514,6 +1902,303 @@
   </si>
   <si>
     <t>maxFALSEloans</t>
+  </si>
+  <si>
+    <t>James Butt</t>
+  </si>
+  <si>
+    <t>Josephine Darakjy</t>
+  </si>
+  <si>
+    <t>Art Venere</t>
+  </si>
+  <si>
+    <t>Lenna Paprocki</t>
+  </si>
+  <si>
+    <t>Donette Foller</t>
+  </si>
+  <si>
+    <t>Simona Morasca</t>
+  </si>
+  <si>
+    <t>Mitsue Tollner</t>
+  </si>
+  <si>
+    <t>Leota Dilliard</t>
+  </si>
+  <si>
+    <t>Sage Wieser</t>
+  </si>
+  <si>
+    <t>Kris Marrier</t>
+  </si>
+  <si>
+    <t>Minna Amigon</t>
+  </si>
+  <si>
+    <t>Abel Maclead</t>
+  </si>
+  <si>
+    <t>Kiley Caldarera</t>
+  </si>
+  <si>
+    <t>Graciela Ruta</t>
+  </si>
+  <si>
+    <t>Cammy Albares</t>
+  </si>
+  <si>
+    <t>Mattie Poquette</t>
+  </si>
+  <si>
+    <t>Meaghan Garufi</t>
+  </si>
+  <si>
+    <t>Gladys Rim</t>
+  </si>
+  <si>
+    <t>Yuki Whobrey</t>
+  </si>
+  <si>
+    <t>Fletcher Flosi</t>
+  </si>
+  <si>
+    <t>Bette Nicka</t>
+  </si>
+  <si>
+    <t>Veronika Inouye</t>
+  </si>
+  <si>
+    <t>Willard Kolmetz</t>
+  </si>
+  <si>
+    <t>Maryann Royster</t>
+  </si>
+  <si>
+    <t>Alisha Slusarski</t>
+  </si>
+  <si>
+    <t>Allene Iturbide</t>
+  </si>
+  <si>
+    <t>Chanel Caudy</t>
+  </si>
+  <si>
+    <t>Ezekiel Chui</t>
+  </si>
+  <si>
+    <t>Willow Kusko</t>
+  </si>
+  <si>
+    <t>Bernardo Figeroa</t>
+  </si>
+  <si>
+    <t>Ammie Corrio</t>
+  </si>
+  <si>
+    <t>Francine Vocelka</t>
+  </si>
+  <si>
+    <t>Ernie Stenseth</t>
+  </si>
+  <si>
+    <t>Albina Glick</t>
+  </si>
+  <si>
+    <t>Alishia Sergi</t>
+  </si>
+  <si>
+    <t>Solange Shinko</t>
+  </si>
+  <si>
+    <t>Jose Stockham</t>
+  </si>
+  <si>
+    <t>Rozella Ostrosky</t>
+  </si>
+  <si>
+    <t>Valentine Gillian</t>
+  </si>
+  <si>
+    <t>Kati Rulapaugh</t>
+  </si>
+  <si>
+    <t>Youlanda Schemmer</t>
+  </si>
+  <si>
+    <t>Dyan Oldroyd</t>
+  </si>
+  <si>
+    <t>Roxane Campain</t>
+  </si>
+  <si>
+    <t>Lavera Perin</t>
+  </si>
+  <si>
+    <t>Erick Ferencz</t>
+  </si>
+  <si>
+    <t>Fatima Saylors</t>
+  </si>
+  <si>
+    <t>Jina Briddick</t>
+  </si>
+  <si>
+    <t>Kanisha Waycott</t>
+  </si>
+  <si>
+    <t>Emerson Bowley</t>
+  </si>
+  <si>
+    <t>Blair Malet</t>
+  </si>
+  <si>
+    <t>Brock Bolognia</t>
+  </si>
+  <si>
+    <t>Lorrie Nestle</t>
+  </si>
+  <si>
+    <t>Sabra Uyetake</t>
+  </si>
+  <si>
+    <t>Marjory Mastella</t>
+  </si>
+  <si>
+    <t>Karl Klonowski</t>
+  </si>
+  <si>
+    <t>Tonette Wenner</t>
+  </si>
+  <si>
+    <t>Amber Monarrez</t>
+  </si>
+  <si>
+    <t>Shenika Seewald</t>
+  </si>
+  <si>
+    <t>Delmy Ahle</t>
+  </si>
+  <si>
+    <t>Deeanna Juhas</t>
+  </si>
+  <si>
+    <t>Blondell Pugh</t>
+  </si>
+  <si>
+    <t>Jamal Vanausdal</t>
+  </si>
+  <si>
+    <t>Cecily Hollack</t>
+  </si>
+  <si>
+    <t>Carmelina Lindall</t>
+  </si>
+  <si>
+    <t>Maurine Yglesias</t>
+  </si>
+  <si>
+    <t>Tawna Buvens</t>
+  </si>
+  <si>
+    <t>Penney Weight</t>
+  </si>
+  <si>
+    <t>Elly Morocco</t>
+  </si>
+  <si>
+    <t>Ilene Eroman</t>
+  </si>
+  <si>
+    <t>Vallie Mondella</t>
+  </si>
+  <si>
+    <t>Kallie Blackwood</t>
+  </si>
+  <si>
+    <t>Johnetta Abdallah</t>
+  </si>
+  <si>
+    <t>Bobbye Rhym</t>
+  </si>
+  <si>
+    <t>Micaela Rhymes</t>
+  </si>
+  <si>
+    <t>Tamar Hoogland</t>
+  </si>
+  <si>
+    <t>Moon Parlato</t>
+  </si>
+  <si>
+    <t>Laurel Reitler</t>
+  </si>
+  <si>
+    <t>Delisa Crupi</t>
+  </si>
+  <si>
+    <t>Viva Toelkes</t>
+  </si>
+  <si>
+    <t>Elza Lipke</t>
+  </si>
+  <si>
+    <t>Devorah Chickering</t>
+  </si>
+  <si>
+    <t>Timothy Mulqueen</t>
+  </si>
+  <si>
+    <t>Arlette Honeywell</t>
+  </si>
+  <si>
+    <t>Dominque Dickerson</t>
+  </si>
+  <si>
+    <t>Lettie Isenhower</t>
+  </si>
+  <si>
+    <t>Myra Munns</t>
+  </si>
+  <si>
+    <t>Stephaine Barfield</t>
+  </si>
+  <si>
+    <t>Lai Gato</t>
+  </si>
+  <si>
+    <t>Stephen Emigh</t>
+  </si>
+  <si>
+    <t>Tyra Shields</t>
+  </si>
+  <si>
+    <t>Tammara Wardrip</t>
+  </si>
+  <si>
+    <t>Cory Gibes</t>
+  </si>
+  <si>
+    <t>Danica Bruschke</t>
+  </si>
+  <si>
+    <t>Wilda Giguere</t>
+  </si>
+  <si>
+    <t>Elvera Benimadho</t>
+  </si>
+  <si>
+    <t>Carma Vanheusen</t>
+  </si>
+  <si>
+    <t>Malinda Hochard</t>
+  </si>
+  <si>
+    <t>Natalie Fern</t>
+  </si>
+  <si>
+    <t>Lisha Centini</t>
   </si>
 </sst>
 </file>
@@ -2933,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>326</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,7 +2629,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,7 +2640,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2966,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2977,7 +2662,7 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2988,7 +2673,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2999,7 +2684,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>342</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3010,7 +2695,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>344</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3021,7 +2706,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>346</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,7 +2717,7 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -3043,1715 +2728,1415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>604</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>605</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>606</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>607</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>608</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>609</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>610</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E8" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>611</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>612</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E10" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>613</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>235</v>
-      </c>
-      <c r="E11" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>614</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>615</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>616</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>238</v>
-      </c>
-      <c r="E14" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>617</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E15" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>618</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>619</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E17" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>620</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>242</v>
-      </c>
-      <c r="E18" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>621</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
-      </c>
-      <c r="E19" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>622</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>244</v>
-      </c>
-      <c r="E20" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>623</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E21" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>624</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>246</v>
-      </c>
-      <c r="E22" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>625</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>626</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
-      </c>
-      <c r="E24" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>627</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>249</v>
-      </c>
-      <c r="E25" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>628</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>250</v>
-      </c>
-      <c r="E26" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>629</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>251</v>
-      </c>
-      <c r="E27" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>630</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D28" t="s">
-        <v>252</v>
-      </c>
-      <c r="E28" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>631</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>253</v>
-      </c>
-      <c r="E29" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>632</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>254</v>
-      </c>
-      <c r="E30" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>633</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>255</v>
-      </c>
-      <c r="E31" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>87</v>
+        <v>634</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="D32" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>89</v>
+        <v>635</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>257</v>
-      </c>
-      <c r="E33" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>91</v>
+        <v>636</v>
       </c>
       <c r="C34" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E34" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>637</v>
       </c>
       <c r="C35" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="D35" t="s">
-        <v>259</v>
-      </c>
-      <c r="E35" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>638</v>
       </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>260</v>
-      </c>
-      <c r="E36" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>639</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>640</v>
       </c>
       <c r="C38" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>262</v>
-      </c>
-      <c r="E38" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>641</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D39" t="s">
-        <v>263</v>
-      </c>
-      <c r="E39" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>642</v>
       </c>
       <c r="C40" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
-      </c>
-      <c r="E40" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>643</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>265</v>
-      </c>
-      <c r="E41" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>644</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="D42" t="s">
-        <v>266</v>
-      </c>
-      <c r="E42" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>109</v>
+        <v>645</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
-      </c>
-      <c r="E43" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1043</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>646</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
-      </c>
-      <c r="E44" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>647</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="D45" t="s">
-        <v>269</v>
-      </c>
-      <c r="E45" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>648</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
-      </c>
-      <c r="E46" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1046</v>
       </c>
       <c r="B47" t="s">
-        <v>117</v>
+        <v>649</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D47" t="s">
-        <v>271</v>
-      </c>
-      <c r="E47" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1047</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>650</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>272</v>
-      </c>
-      <c r="E48" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>121</v>
+        <v>651</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
-      </c>
-      <c r="E49" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1049</v>
       </c>
       <c r="B50" t="s">
-        <v>123</v>
+        <v>652</v>
       </c>
       <c r="C50" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D50" t="s">
-        <v>274</v>
-      </c>
-      <c r="E50" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>653</v>
       </c>
       <c r="C51" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="D51" t="s">
-        <v>275</v>
-      </c>
-      <c r="E51" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>127</v>
+        <v>654</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
-      </c>
-      <c r="E52" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1052</v>
       </c>
       <c r="B53" t="s">
-        <v>129</v>
+        <v>655</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>77</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
-      </c>
-      <c r="E53" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1053</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>656</v>
       </c>
       <c r="C54" t="s">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
-      </c>
-      <c r="E54" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>657</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>79</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
-      </c>
-      <c r="E55" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1055</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>658</v>
       </c>
       <c r="C56" t="s">
-        <v>136</v>
+        <v>80</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
-      </c>
-      <c r="E56" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1056</v>
       </c>
       <c r="B57" t="s">
-        <v>137</v>
+        <v>659</v>
       </c>
       <c r="C57" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="D57" t="s">
-        <v>281</v>
-      </c>
-      <c r="E57" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1057</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>660</v>
       </c>
       <c r="C58" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
-      </c>
-      <c r="E58" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1058</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>661</v>
       </c>
       <c r="C59" t="s">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="D59" t="s">
-        <v>283</v>
-      </c>
-      <c r="E59" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1059</v>
       </c>
       <c r="B60" t="s">
-        <v>143</v>
+        <v>662</v>
       </c>
       <c r="C60" t="s">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="D60" t="s">
-        <v>284</v>
-      </c>
-      <c r="E60" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1060</v>
       </c>
       <c r="B61" t="s">
-        <v>145</v>
+        <v>663</v>
       </c>
       <c r="C61" t="s">
-        <v>146</v>
+        <v>85</v>
       </c>
       <c r="D61" t="s">
-        <v>285</v>
-      </c>
-      <c r="E61" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1061</v>
       </c>
       <c r="B62" t="s">
-        <v>147</v>
+        <v>664</v>
       </c>
       <c r="C62" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D62" t="s">
-        <v>286</v>
-      </c>
-      <c r="E62" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1062</v>
       </c>
       <c r="B63" t="s">
-        <v>149</v>
+        <v>665</v>
       </c>
       <c r="C63" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="D63" t="s">
-        <v>287</v>
-      </c>
-      <c r="E63" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1063</v>
       </c>
       <c r="B64" t="s">
-        <v>151</v>
+        <v>666</v>
       </c>
       <c r="C64" t="s">
-        <v>152</v>
+        <v>88</v>
       </c>
       <c r="D64" t="s">
-        <v>288</v>
-      </c>
-      <c r="E64" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1064</v>
       </c>
       <c r="B65" t="s">
-        <v>153</v>
+        <v>667</v>
       </c>
       <c r="C65" t="s">
-        <v>154</v>
+        <v>89</v>
       </c>
       <c r="D65" t="s">
-        <v>289</v>
-      </c>
-      <c r="E65" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1065</v>
       </c>
       <c r="B66" t="s">
-        <v>155</v>
+        <v>668</v>
       </c>
       <c r="C66" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>290</v>
-      </c>
-      <c r="E66" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1066</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>669</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>291</v>
-      </c>
-      <c r="E67" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1067</v>
       </c>
       <c r="B68" t="s">
-        <v>159</v>
+        <v>670</v>
       </c>
       <c r="C68" t="s">
-        <v>160</v>
+        <v>92</v>
       </c>
       <c r="D68" t="s">
-        <v>292</v>
-      </c>
-      <c r="E68" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1068</v>
       </c>
       <c r="B69" t="s">
-        <v>161</v>
+        <v>671</v>
       </c>
       <c r="C69" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="D69" t="s">
-        <v>293</v>
-      </c>
-      <c r="E69" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1069</v>
       </c>
       <c r="B70" t="s">
-        <v>163</v>
+        <v>672</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>294</v>
-      </c>
-      <c r="E70" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1070</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>673</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>295</v>
-      </c>
-      <c r="E71" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1071</v>
       </c>
       <c r="B72" t="s">
-        <v>167</v>
+        <v>674</v>
       </c>
       <c r="C72" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
-        <v>296</v>
-      </c>
-      <c r="E72" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1072</v>
       </c>
       <c r="B73" t="s">
-        <v>169</v>
+        <v>675</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="D73" t="s">
-        <v>297</v>
-      </c>
-      <c r="E73" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1073</v>
       </c>
       <c r="B74" t="s">
-        <v>171</v>
+        <v>676</v>
       </c>
       <c r="C74" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="D74" t="s">
-        <v>298</v>
-      </c>
-      <c r="E74" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1074</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>677</v>
       </c>
       <c r="C75" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="D75" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1075</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>678</v>
       </c>
       <c r="C76" t="s">
-        <v>176</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>300</v>
-      </c>
-      <c r="E76" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1076</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>679</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="D77" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1077</v>
       </c>
       <c r="B78" t="s">
-        <v>179</v>
+        <v>680</v>
       </c>
       <c r="C78" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1078</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>681</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="D79" t="s">
-        <v>303</v>
-      </c>
-      <c r="E79" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1079</v>
       </c>
       <c r="B80" t="s">
-        <v>183</v>
+        <v>682</v>
       </c>
       <c r="C80" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="D80" t="s">
-        <v>304</v>
-      </c>
-      <c r="E80" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1080</v>
       </c>
       <c r="B81" t="s">
-        <v>185</v>
+        <v>683</v>
       </c>
       <c r="C81" t="s">
-        <v>186</v>
+        <v>105</v>
       </c>
       <c r="D81" t="s">
-        <v>305</v>
-      </c>
-      <c r="E81" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1081</v>
       </c>
       <c r="B82" t="s">
-        <v>187</v>
+        <v>684</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="D82" t="s">
-        <v>306</v>
-      </c>
-      <c r="E82" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1082</v>
       </c>
       <c r="B83" t="s">
-        <v>189</v>
+        <v>685</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="D83" t="s">
-        <v>307</v>
-      </c>
-      <c r="E83" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1083</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>686</v>
       </c>
       <c r="C84" t="s">
-        <v>192</v>
+        <v>108</v>
       </c>
       <c r="D84" t="s">
-        <v>308</v>
-      </c>
-      <c r="E84" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1084</v>
       </c>
       <c r="B85" t="s">
-        <v>193</v>
+        <v>687</v>
       </c>
       <c r="C85" t="s">
-        <v>194</v>
+        <v>109</v>
       </c>
       <c r="D85" t="s">
-        <v>309</v>
-      </c>
-      <c r="E85" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1085</v>
       </c>
       <c r="B86" t="s">
-        <v>195</v>
+        <v>688</v>
       </c>
       <c r="C86" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="D86" t="s">
-        <v>310</v>
-      </c>
-      <c r="E86" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1086</v>
       </c>
       <c r="B87" t="s">
-        <v>197</v>
+        <v>689</v>
       </c>
       <c r="C87" t="s">
-        <v>198</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>311</v>
-      </c>
-      <c r="E87" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1087</v>
       </c>
       <c r="B88" t="s">
-        <v>199</v>
+        <v>690</v>
       </c>
       <c r="C88" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
-        <v>312</v>
-      </c>
-      <c r="E88" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1088</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>691</v>
       </c>
       <c r="C89" t="s">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>313</v>
-      </c>
-      <c r="E89" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1089</v>
       </c>
       <c r="B90" t="s">
-        <v>203</v>
+        <v>692</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
-      </c>
-      <c r="E90" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1090</v>
       </c>
       <c r="B91" t="s">
-        <v>205</v>
+        <v>693</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>115</v>
       </c>
       <c r="D91" t="s">
-        <v>315</v>
-      </c>
-      <c r="E91" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1091</v>
       </c>
       <c r="B92" t="s">
-        <v>207</v>
+        <v>694</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>316</v>
-      </c>
-      <c r="E92" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1092</v>
       </c>
       <c r="B93" t="s">
-        <v>209</v>
+        <v>695</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>117</v>
       </c>
       <c r="D93" t="s">
-        <v>317</v>
-      </c>
-      <c r="E93" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1093</v>
       </c>
       <c r="B94" t="s">
-        <v>211</v>
+        <v>696</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="D94" t="s">
-        <v>318</v>
-      </c>
-      <c r="E94" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1094</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>697</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>119</v>
       </c>
       <c r="D95" t="s">
-        <v>319</v>
-      </c>
-      <c r="E95" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1095</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>698</v>
       </c>
       <c r="C96" t="s">
-        <v>216</v>
+        <v>120</v>
       </c>
       <c r="D96" t="s">
-        <v>320</v>
-      </c>
-      <c r="E96" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1096</v>
       </c>
       <c r="B97" t="s">
-        <v>217</v>
+        <v>699</v>
       </c>
       <c r="C97" t="s">
-        <v>218</v>
+        <v>121</v>
       </c>
       <c r="D97" t="s">
-        <v>321</v>
-      </c>
-      <c r="E97" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1097</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
+        <v>700</v>
       </c>
       <c r="C98" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="D98" t="s">
-        <v>322</v>
-      </c>
-      <c r="E98" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1098</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
+        <v>701</v>
       </c>
       <c r="C99" t="s">
-        <v>222</v>
+        <v>123</v>
       </c>
       <c r="D99" t="s">
-        <v>323</v>
-      </c>
-      <c r="E99" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1099</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
+        <v>702</v>
       </c>
       <c r="C100" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>324</v>
-      </c>
-      <c r="E100" t="s">
-        <v>433</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4776,37 +4161,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>435</v>
+        <v>235</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>436</v>
+        <v>236</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>437</v>
+        <v>237</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>438</v>
+        <v>238</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>803</v>
+        <v>603</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>439</v>
+        <v>239</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>440</v>
+        <v>240</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>441</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4817,16 +4202,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D2" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E2" t="s">
-        <v>740</v>
+        <v>540</v>
       </c>
       <c r="F2" t="s">
-        <v>582</v>
+        <v>382</v>
       </c>
       <c r="G2">
         <v>1951</v>
@@ -4838,7 +4223,7 @@
         <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -4852,16 +4237,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D3" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E3" t="s">
-        <v>685</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
-        <v>515</v>
+        <v>315</v>
       </c>
       <c r="G3">
         <v>1933</v>
@@ -4873,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K3" t="s">
         <v>9</v>
@@ -4887,16 +4272,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D4" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E4" t="s">
-        <v>644</v>
+        <v>444</v>
       </c>
       <c r="F4" t="s">
-        <v>799</v>
+        <v>599</v>
       </c>
       <c r="G4">
         <v>1943</v>
@@ -4908,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K4" t="s">
         <v>5</v>
@@ -4922,16 +4307,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D5" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>446</v>
       </c>
       <c r="F5" t="s">
-        <v>473</v>
+        <v>273</v>
       </c>
       <c r="G5">
         <v>1970</v>
@@ -4943,7 +4328,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -4957,16 +4342,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D6" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E6" t="s">
-        <v>748</v>
+        <v>548</v>
       </c>
       <c r="F6" t="s">
-        <v>567</v>
+        <v>367</v>
       </c>
       <c r="G6">
         <v>1971</v>
@@ -4978,7 +4363,7 @@
         <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -4992,16 +4377,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E7" t="s">
-        <v>748</v>
+        <v>548</v>
       </c>
       <c r="F7" t="s">
-        <v>567</v>
+        <v>367</v>
       </c>
       <c r="G7">
         <v>1972</v>
@@ -5013,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K7" t="s">
         <v>13</v>
@@ -5027,16 +4412,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D8" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E8" t="s">
-        <v>748</v>
+        <v>548</v>
       </c>
       <c r="F8" t="s">
-        <v>567</v>
+        <v>367</v>
       </c>
       <c r="G8">
         <v>1971</v>
@@ -5048,7 +4433,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K8" t="s">
         <v>15</v>
@@ -5062,16 +4447,16 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D9" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E9" t="s">
-        <v>628</v>
+        <v>428</v>
       </c>
       <c r="F9" t="s">
-        <v>456</v>
+        <v>256</v>
       </c>
       <c r="G9">
         <v>1959</v>
@@ -5083,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K9" t="s">
         <v>3</v>
@@ -5097,16 +4482,16 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D10" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E10" t="s">
-        <v>764</v>
+        <v>564</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>405</v>
       </c>
       <c r="G10">
         <v>1973</v>
@@ -5118,7 +4503,7 @@
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K10" t="s">
         <v>19</v>
@@ -5132,16 +4517,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D11" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E11" t="s">
-        <v>689</v>
+        <v>489</v>
       </c>
       <c r="F11" t="s">
-        <v>519</v>
+        <v>319</v>
       </c>
       <c r="G11">
         <v>1914</v>
@@ -5153,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K11" t="s">
         <v>9</v>
@@ -5167,16 +4552,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D12" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E12" t="s">
-        <v>618</v>
+        <v>418</v>
       </c>
       <c r="F12" t="s">
-        <v>446</v>
+        <v>246</v>
       </c>
       <c r="G12">
         <v>1968</v>
@@ -5188,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K12" t="s">
         <v>3</v>
@@ -5202,16 +4587,16 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D13" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E13" t="s">
-        <v>761</v>
+        <v>561</v>
       </c>
       <c r="F13" t="s">
-        <v>601</v>
+        <v>401</v>
       </c>
       <c r="G13">
         <v>1906</v>
@@ -5223,7 +4608,7 @@
         <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K13" t="s">
         <v>17</v>
@@ -5237,16 +4622,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D14" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E14" t="s">
-        <v>724</v>
+        <v>524</v>
       </c>
       <c r="F14" t="s">
-        <v>559</v>
+        <v>359</v>
       </c>
       <c r="G14">
         <v>1972</v>
@@ -5258,7 +4643,7 @@
         <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K14" t="s">
         <v>13</v>
@@ -5272,16 +4657,16 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D15" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E15" t="s">
-        <v>614</v>
+        <v>414</v>
       </c>
       <c r="F15" t="s">
-        <v>442</v>
+        <v>242</v>
       </c>
       <c r="G15">
         <v>1979</v>
@@ -5293,7 +4678,7 @@
         <v>25</v>
       </c>
       <c r="J15" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K15" t="s">
         <v>3</v>
@@ -5307,16 +4692,16 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D16" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>660</v>
+        <v>460</v>
       </c>
       <c r="F16" t="s">
-        <v>487</v>
+        <v>287</v>
       </c>
       <c r="G16">
         <v>1963</v>
@@ -5328,7 +4713,7 @@
         <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K16" t="s">
         <v>5</v>
@@ -5342,16 +4727,16 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D17" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E17" t="s">
-        <v>695</v>
+        <v>495</v>
       </c>
       <c r="F17" t="s">
-        <v>527</v>
+        <v>327</v>
       </c>
       <c r="G17">
         <v>1970</v>
@@ -5363,7 +4748,7 @@
         <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K17" t="s">
         <v>9</v>
@@ -5377,16 +4762,16 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D18" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E18" t="s">
-        <v>665</v>
+        <v>465</v>
       </c>
       <c r="F18" t="s">
-        <v>496</v>
+        <v>296</v>
       </c>
       <c r="G18">
         <v>2009</v>
@@ -5398,7 +4783,7 @@
         <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K18" t="s">
         <v>7</v>
@@ -5412,16 +4797,16 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D19" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E19" t="s">
-        <v>622</v>
+        <v>422</v>
       </c>
       <c r="F19" t="s">
-        <v>451</v>
+        <v>251</v>
       </c>
       <c r="G19">
         <v>1988</v>
@@ -5433,7 +4818,7 @@
         <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K19" t="s">
         <v>3</v>
@@ -5447,16 +4832,16 @@
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D20" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E20" t="s">
-        <v>639</v>
+        <v>439</v>
       </c>
       <c r="F20" t="s">
-        <v>466</v>
+        <v>266</v>
       </c>
       <c r="G20">
         <v>2009</v>
@@ -5468,7 +4853,7 @@
         <v>25</v>
       </c>
       <c r="J20" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K20" t="s">
         <v>5</v>
@@ -5482,16 +4867,16 @@
         <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D21" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
-        <v>664</v>
+        <v>464</v>
       </c>
       <c r="F21" t="s">
-        <v>495</v>
+        <v>295</v>
       </c>
       <c r="G21">
         <v>1942</v>
@@ -5503,7 +4888,7 @@
         <v>25</v>
       </c>
       <c r="J21" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
@@ -5517,16 +4902,16 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D22" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>767</v>
+        <v>567</v>
       </c>
       <c r="F22" t="s">
-        <v>610</v>
+        <v>410</v>
       </c>
       <c r="G22">
         <v>1958</v>
@@ -5538,7 +4923,7 @@
         <v>25</v>
       </c>
       <c r="J22" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K22" t="s">
         <v>21</v>
@@ -5552,16 +4937,16 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D23" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E23" t="s">
-        <v>736</v>
+        <v>536</v>
       </c>
       <c r="F23" t="s">
-        <v>577</v>
+        <v>377</v>
       </c>
       <c r="G23">
         <v>1984</v>
@@ -5573,7 +4958,7 @@
         <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K23" t="s">
         <v>15</v>
@@ -5587,16 +4972,16 @@
         <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D24" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E24" t="s">
-        <v>733</v>
+        <v>533</v>
       </c>
       <c r="F24" t="s">
-        <v>573</v>
+        <v>373</v>
       </c>
       <c r="G24">
         <v>1985</v>
@@ -5608,7 +4993,7 @@
         <v>25</v>
       </c>
       <c r="J24" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -5622,16 +5007,16 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D25" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E25" t="s">
-        <v>687</v>
+        <v>487</v>
       </c>
       <c r="F25" t="s">
-        <v>517</v>
+        <v>317</v>
       </c>
       <c r="G25">
         <v>1927</v>
@@ -5643,7 +5028,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
@@ -5657,16 +5042,16 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D26" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E26" t="s">
-        <v>752</v>
+        <v>552</v>
       </c>
       <c r="F26" t="s">
-        <v>592</v>
+        <v>392</v>
       </c>
       <c r="G26">
         <v>1917</v>
@@ -5678,7 +5063,7 @@
         <v>25</v>
       </c>
       <c r="J26" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -5692,16 +5077,16 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D27" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E27" t="s">
-        <v>697</v>
+        <v>497</v>
       </c>
       <c r="F27" t="s">
-        <v>529</v>
+        <v>329</v>
       </c>
       <c r="G27">
         <v>1936</v>
@@ -5713,7 +5098,7 @@
         <v>25</v>
       </c>
       <c r="J27" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K27" t="s">
         <v>9</v>
@@ -5727,16 +5112,16 @@
         <v>25</v>
       </c>
       <c r="C28" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D28" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E28" t="s">
-        <v>642</v>
+        <v>442</v>
       </c>
       <c r="F28" t="s">
-        <v>470</v>
+        <v>270</v>
       </c>
       <c r="G28">
         <v>1929</v>
@@ -5748,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K28" t="s">
         <v>5</v>
@@ -5762,16 +5147,16 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D29" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E29" t="s">
-        <v>782</v>
+        <v>582</v>
       </c>
       <c r="F29" t="s">
-        <v>561</v>
+        <v>361</v>
       </c>
       <c r="G29">
         <v>1904</v>
@@ -5783,7 +5168,7 @@
         <v>25</v>
       </c>
       <c r="J29" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K29" t="s">
         <v>13</v>
@@ -5797,16 +5182,16 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D30" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>781</v>
+        <v>581</v>
       </c>
       <c r="F30" t="s">
-        <v>566</v>
+        <v>366</v>
       </c>
       <c r="G30">
         <v>1999</v>
@@ -5818,7 +5203,7 @@
         <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K30" t="s">
         <v>15</v>
@@ -5832,16 +5217,16 @@
         <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D31" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E31" t="s">
-        <v>783</v>
+        <v>583</v>
       </c>
       <c r="F31" t="s">
-        <v>469</v>
+        <v>269</v>
       </c>
       <c r="G31">
         <v>1911</v>
@@ -5853,7 +5238,7 @@
         <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K31" t="s">
         <v>5</v>
@@ -5867,16 +5252,16 @@
         <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D32" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E32" t="s">
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="F32" t="s">
-        <v>449</v>
+        <v>249</v>
       </c>
       <c r="G32">
         <v>1936</v>
@@ -5888,7 +5273,7 @@
         <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K32" t="s">
         <v>3</v>
@@ -5902,16 +5287,16 @@
         <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D33" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E33" t="s">
-        <v>627</v>
+        <v>427</v>
       </c>
       <c r="F33" t="s">
-        <v>449</v>
+        <v>249</v>
       </c>
       <c r="G33">
         <v>1936</v>
@@ -5923,7 +5308,7 @@
         <v>25</v>
       </c>
       <c r="J33" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K33" t="s">
         <v>3</v>
@@ -5937,16 +5322,16 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D34" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E34" t="s">
-        <v>672</v>
+        <v>472</v>
       </c>
       <c r="F34" t="s">
-        <v>503</v>
+        <v>303</v>
       </c>
       <c r="G34">
         <v>1931</v>
@@ -5958,7 +5343,7 @@
         <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K34" t="s">
         <v>7</v>
@@ -5972,16 +5357,16 @@
         <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D35" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E35" t="s">
-        <v>703</v>
+        <v>503</v>
       </c>
       <c r="F35" t="s">
-        <v>537</v>
+        <v>337</v>
       </c>
       <c r="G35">
         <v>1961</v>
@@ -5993,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K35" t="s">
         <v>11</v>
@@ -6007,16 +5392,16 @@
         <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D36" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E36" t="s">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F36" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="G36">
         <v>1989</v>
@@ -6028,7 +5413,7 @@
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K36" t="s">
         <v>15</v>
@@ -6042,16 +5427,16 @@
         <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D37" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E37" t="s">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F37" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="G37">
         <v>1989</v>
@@ -6063,7 +5448,7 @@
         <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K37" t="s">
         <v>17</v>
@@ -6077,16 +5462,16 @@
         <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D38" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E38" t="s">
-        <v>750</v>
+        <v>550</v>
       </c>
       <c r="F38" t="s">
-        <v>590</v>
+        <v>390</v>
       </c>
       <c r="G38">
         <v>2005</v>
@@ -6098,7 +5483,7 @@
         <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K38" t="s">
         <v>19</v>
@@ -6112,16 +5497,16 @@
         <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D39" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E39" t="s">
-        <v>710</v>
+        <v>510</v>
       </c>
       <c r="F39" t="s">
-        <v>545</v>
+        <v>345</v>
       </c>
       <c r="G39">
         <v>1906</v>
@@ -6133,7 +5518,7 @@
         <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K39" t="s">
         <v>11</v>
@@ -6147,16 +5532,16 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D40" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E40" t="s">
-        <v>694</v>
+        <v>494</v>
       </c>
       <c r="F40" t="s">
-        <v>525</v>
+        <v>325</v>
       </c>
       <c r="G40">
         <v>1980</v>
@@ -6168,7 +5553,7 @@
         <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K40" t="s">
         <v>9</v>
@@ -6182,16 +5567,16 @@
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D41" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E41" t="s">
-        <v>734</v>
+        <v>534</v>
       </c>
       <c r="F41" t="s">
-        <v>574</v>
+        <v>374</v>
       </c>
       <c r="G41">
         <v>1936</v>
@@ -6203,7 +5588,7 @@
         <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K41" t="s">
         <v>15</v>
@@ -6217,16 +5602,16 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D42" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E42" t="s">
-        <v>723</v>
+        <v>523</v>
       </c>
       <c r="F42" t="s">
-        <v>558</v>
+        <v>358</v>
       </c>
       <c r="G42">
         <v>1947</v>
@@ -6238,7 +5623,7 @@
         <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K42" t="s">
         <v>13</v>
@@ -6252,16 +5637,16 @@
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D43" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E43" t="s">
-        <v>638</v>
+        <v>438</v>
       </c>
       <c r="F43" t="s">
-        <v>465</v>
+        <v>265</v>
       </c>
       <c r="G43">
         <v>2003</v>
@@ -6273,7 +5658,7 @@
         <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K43" t="s">
         <v>5</v>
@@ -6287,16 +5672,16 @@
         <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D44" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E44" t="s">
-        <v>691</v>
+        <v>491</v>
       </c>
       <c r="F44" t="s">
-        <v>522</v>
+        <v>322</v>
       </c>
       <c r="G44">
         <v>1960</v>
@@ -6308,7 +5693,7 @@
         <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K44" t="s">
         <v>9</v>
@@ -6322,16 +5707,16 @@
         <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D45" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E45" t="s">
-        <v>751</v>
+        <v>551</v>
       </c>
       <c r="F45" t="s">
-        <v>591</v>
+        <v>391</v>
       </c>
       <c r="G45">
         <v>1944</v>
@@ -6343,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K45" t="s">
         <v>15</v>
@@ -6357,16 +5742,16 @@
         <v>41</v>
       </c>
       <c r="C46" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D46" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E46" t="s">
-        <v>758</v>
+        <v>558</v>
       </c>
       <c r="F46" t="s">
-        <v>598</v>
+        <v>398</v>
       </c>
       <c r="G46">
         <v>1921</v>
@@ -6378,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K46" t="s">
         <v>15</v>
@@ -6392,16 +5777,16 @@
         <v>41</v>
       </c>
       <c r="C47" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D47" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E47" t="s">
-        <v>758</v>
+        <v>558</v>
       </c>
       <c r="F47" t="s">
-        <v>598</v>
+        <v>398</v>
       </c>
       <c r="G47">
         <v>1996</v>
@@ -6413,7 +5798,7 @@
         <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K47" t="s">
         <v>17</v>
@@ -6427,16 +5812,16 @@
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D48" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E48" t="s">
-        <v>758</v>
+        <v>558</v>
       </c>
       <c r="F48" t="s">
-        <v>603</v>
+        <v>403</v>
       </c>
       <c r="G48">
         <v>1904</v>
@@ -6448,7 +5833,7 @@
         <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K48" t="s">
         <v>19</v>
@@ -6462,16 +5847,16 @@
         <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D49" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E49" t="s">
-        <v>754</v>
+        <v>554</v>
       </c>
       <c r="F49" t="s">
-        <v>594</v>
+        <v>394</v>
       </c>
       <c r="G49">
         <v>1988</v>
@@ -6483,7 +5868,7 @@
         <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K49" t="s">
         <v>15</v>
@@ -6497,16 +5882,16 @@
         <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D50" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E50" t="s">
-        <v>678</v>
+        <v>478</v>
       </c>
       <c r="F50" t="s">
-        <v>509</v>
+        <v>309</v>
       </c>
       <c r="G50">
         <v>1924</v>
@@ -6518,7 +5903,7 @@
         <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K50" t="s">
         <v>7</v>
@@ -6532,16 +5917,16 @@
         <v>45</v>
       </c>
       <c r="C51" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D51" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E51" t="s">
-        <v>647</v>
+        <v>447</v>
       </c>
       <c r="F51" t="s">
-        <v>474</v>
+        <v>274</v>
       </c>
       <c r="G51">
         <v>1997</v>
@@ -6553,7 +5938,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K51" t="s">
         <v>5</v>
@@ -6567,16 +5952,16 @@
         <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D52" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E52" t="s">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="F52" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="G52">
         <v>1960</v>
@@ -6588,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K52" t="s">
         <v>7</v>
@@ -6602,16 +5987,16 @@
         <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D53" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E53" t="s">
-        <v>670</v>
+        <v>470</v>
       </c>
       <c r="F53" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="G53">
         <v>1967</v>
@@ -6623,7 +6008,7 @@
         <v>25</v>
       </c>
       <c r="J53" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K53" t="s">
         <v>11</v>
@@ -6637,16 +6022,16 @@
         <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D54" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E54" t="s">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="F54" t="s">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="G54">
         <v>2010</v>
@@ -6658,7 +6043,7 @@
         <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K54" t="s">
         <v>7</v>
@@ -6672,16 +6057,16 @@
         <v>48</v>
       </c>
       <c r="C55" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D55" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E55" t="s">
-        <v>755</v>
+        <v>555</v>
       </c>
       <c r="F55" t="s">
-        <v>595</v>
+        <v>395</v>
       </c>
       <c r="G55">
         <v>1965</v>
@@ -6693,7 +6078,7 @@
         <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K55" t="s">
         <v>15</v>
@@ -6707,16 +6092,16 @@
         <v>49</v>
       </c>
       <c r="C56" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D56" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E56" t="s">
-        <v>624</v>
+        <v>424</v>
       </c>
       <c r="F56" t="s">
-        <v>453</v>
+        <v>253</v>
       </c>
       <c r="G56">
         <v>1969</v>
@@ -6728,7 +6113,7 @@
         <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K56" t="s">
         <v>3</v>
@@ -6742,16 +6127,16 @@
         <v>50</v>
       </c>
       <c r="C57" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D57" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E57" t="s">
-        <v>705</v>
+        <v>505</v>
       </c>
       <c r="F57" t="s">
-        <v>540</v>
+        <v>340</v>
       </c>
       <c r="G57">
         <v>1931</v>
@@ -6763,7 +6148,7 @@
         <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
@@ -6777,16 +6162,16 @@
         <v>51</v>
       </c>
       <c r="C58" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D58" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E58" t="s">
-        <v>717</v>
+        <v>517</v>
       </c>
       <c r="F58" t="s">
-        <v>553</v>
+        <v>353</v>
       </c>
       <c r="G58">
         <v>1991</v>
@@ -6798,7 +6183,7 @@
         <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K58" t="s">
         <v>13</v>
@@ -6812,16 +6197,16 @@
         <v>52</v>
       </c>
       <c r="C59" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D59" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E59" t="s">
-        <v>675</v>
+        <v>475</v>
       </c>
       <c r="F59" t="s">
-        <v>506</v>
+        <v>306</v>
       </c>
       <c r="G59">
         <v>1912</v>
@@ -6833,7 +6218,7 @@
         <v>25</v>
       </c>
       <c r="J59" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K59" t="s">
         <v>7</v>
@@ -6847,16 +6232,16 @@
         <v>53</v>
       </c>
       <c r="C60" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D60" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E60" t="s">
-        <v>714</v>
+        <v>514</v>
       </c>
       <c r="F60" t="s">
-        <v>550</v>
+        <v>350</v>
       </c>
       <c r="G60">
         <v>1958</v>
@@ -6868,7 +6253,7 @@
         <v>25</v>
       </c>
       <c r="J60" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K60" t="s">
         <v>13</v>
@@ -6882,16 +6267,16 @@
         <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D61" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E61" t="s">
-        <v>668</v>
+        <v>468</v>
       </c>
       <c r="F61" t="s">
-        <v>499</v>
+        <v>299</v>
       </c>
       <c r="G61">
         <v>1946</v>
@@ -6903,7 +6288,7 @@
         <v>25</v>
       </c>
       <c r="J61" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
@@ -6917,16 +6302,16 @@
         <v>55</v>
       </c>
       <c r="C62" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D62" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E62" t="s">
-        <v>739</v>
+        <v>539</v>
       </c>
       <c r="F62" t="s">
-        <v>580</v>
+        <v>380</v>
       </c>
       <c r="G62">
         <v>1979</v>
@@ -6938,7 +6323,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K62" t="s">
         <v>15</v>
@@ -6952,16 +6337,16 @@
         <v>56</v>
       </c>
       <c r="C63" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D63" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E63" t="s">
-        <v>716</v>
+        <v>516</v>
       </c>
       <c r="F63" t="s">
-        <v>551</v>
+        <v>351</v>
       </c>
       <c r="G63">
         <v>1983</v>
@@ -6973,7 +6358,7 @@
         <v>25</v>
       </c>
       <c r="J63" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K63" t="s">
         <v>13</v>
@@ -6987,16 +6372,16 @@
         <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D64" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E64" t="s">
-        <v>757</v>
+        <v>557</v>
       </c>
       <c r="F64" t="s">
-        <v>597</v>
+        <v>397</v>
       </c>
       <c r="G64">
         <v>1927</v>
@@ -7008,7 +6393,7 @@
         <v>25</v>
       </c>
       <c r="J64" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K64" t="s">
         <v>17</v>
@@ -7022,16 +6407,16 @@
         <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D65" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E65" t="s">
-        <v>640</v>
+        <v>440</v>
       </c>
       <c r="F65" t="s">
-        <v>467</v>
+        <v>267</v>
       </c>
       <c r="G65">
         <v>1921</v>
@@ -7043,7 +6428,7 @@
         <v>25</v>
       </c>
       <c r="J65" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K65" t="s">
         <v>5</v>
@@ -7057,16 +6442,16 @@
         <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D66" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E66" t="s">
-        <v>679</v>
+        <v>479</v>
       </c>
       <c r="F66" t="s">
-        <v>510</v>
+        <v>310</v>
       </c>
       <c r="G66">
         <v>1923</v>
@@ -7078,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K66" t="s">
         <v>7</v>
@@ -7092,16 +6477,16 @@
         <v>60</v>
       </c>
       <c r="C67" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D67" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E67" t="s">
-        <v>621</v>
+        <v>421</v>
       </c>
       <c r="F67" t="s">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="G67">
         <v>1969</v>
@@ -7113,7 +6498,7 @@
         <v>25</v>
       </c>
       <c r="J67" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K67" t="s">
         <v>3</v>
@@ -7127,16 +6512,16 @@
         <v>61</v>
       </c>
       <c r="C68" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D68" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E68" t="s">
-        <v>718</v>
+        <v>518</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>354</v>
       </c>
       <c r="G68">
         <v>2012</v>
@@ -7148,7 +6533,7 @@
         <v>25</v>
       </c>
       <c r="J68" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K68" t="s">
         <v>13</v>
@@ -7162,16 +6547,16 @@
         <v>62</v>
       </c>
       <c r="C69" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D69" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E69" t="s">
-        <v>730</v>
+        <v>530</v>
       </c>
       <c r="F69" t="s">
-        <v>568</v>
+        <v>368</v>
       </c>
       <c r="G69">
         <v>1965</v>
@@ -7183,7 +6568,7 @@
         <v>25</v>
       </c>
       <c r="J69" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K69" t="s">
         <v>15</v>
@@ -7197,16 +6582,16 @@
         <v>62</v>
       </c>
       <c r="C70" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D70" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E70" t="s">
-        <v>730</v>
+        <v>530</v>
       </c>
       <c r="F70" t="s">
-        <v>568</v>
+        <v>368</v>
       </c>
       <c r="G70">
         <v>1943</v>
@@ -7218,7 +6603,7 @@
         <v>25</v>
       </c>
       <c r="J70" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K70" t="s">
         <v>15</v>
@@ -7232,16 +6617,16 @@
         <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D71" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E71" t="s">
-        <v>653</v>
+        <v>453</v>
       </c>
       <c r="F71" t="s">
-        <v>480</v>
+        <v>280</v>
       </c>
       <c r="G71">
         <v>1938</v>
@@ -7253,7 +6638,7 @@
         <v>25</v>
       </c>
       <c r="J71" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K71" t="s">
         <v>5</v>
@@ -7267,16 +6652,16 @@
         <v>64</v>
       </c>
       <c r="C72" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D72" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E72" t="s">
-        <v>630</v>
+        <v>430</v>
       </c>
       <c r="F72" t="s">
-        <v>458</v>
+        <v>258</v>
       </c>
       <c r="G72">
         <v>1995</v>
@@ -7288,7 +6673,7 @@
         <v>25</v>
       </c>
       <c r="J72" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K72" t="s">
         <v>3</v>
@@ -7302,16 +6687,16 @@
         <v>65</v>
       </c>
       <c r="C73" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D73" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E73" t="s">
-        <v>715</v>
+        <v>515</v>
       </c>
       <c r="F73" t="s">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="G73">
         <v>1989</v>
@@ -7323,7 +6708,7 @@
         <v>25</v>
       </c>
       <c r="J73" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K73" t="s">
         <v>11</v>
@@ -7337,16 +6722,16 @@
         <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D74" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E74" t="s">
-        <v>715</v>
+        <v>515</v>
       </c>
       <c r="F74" t="s">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="G74">
         <v>1920</v>
@@ -7358,7 +6743,7 @@
         <v>25</v>
       </c>
       <c r="J74" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K74" t="s">
         <v>11</v>
@@ -7372,16 +6757,16 @@
         <v>65</v>
       </c>
       <c r="C75" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D75" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E75" t="s">
-        <v>715</v>
+        <v>515</v>
       </c>
       <c r="F75" t="s">
-        <v>539</v>
+        <v>339</v>
       </c>
       <c r="G75">
         <v>1929</v>
@@ -7393,7 +6778,7 @@
         <v>25</v>
       </c>
       <c r="J75" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K75" t="s">
         <v>13</v>
@@ -7407,16 +6792,16 @@
         <v>66</v>
       </c>
       <c r="C76" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D76" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E76" t="s">
-        <v>720</v>
+        <v>520</v>
       </c>
       <c r="F76" t="s">
-        <v>556</v>
+        <v>356</v>
       </c>
       <c r="G76">
         <v>1946</v>
@@ -7428,7 +6813,7 @@
         <v>25</v>
       </c>
       <c r="J76" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K76" t="s">
         <v>13</v>
@@ -7442,16 +6827,16 @@
         <v>67</v>
       </c>
       <c r="C77" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D77" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E77" t="s">
-        <v>662</v>
+        <v>462</v>
       </c>
       <c r="F77" t="s">
-        <v>492</v>
+        <v>292</v>
       </c>
       <c r="G77">
         <v>1961</v>
@@ -7463,7 +6848,7 @@
         <v>25</v>
       </c>
       <c r="J77" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K77" t="s">
         <v>5</v>
@@ -7477,16 +6862,16 @@
         <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D78" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E78" t="s">
-        <v>796</v>
+        <v>596</v>
       </c>
       <c r="F78" t="s">
-        <v>575</v>
+        <v>375</v>
       </c>
       <c r="G78">
         <v>1906</v>
@@ -7498,7 +6883,7 @@
         <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K78" t="s">
         <v>15</v>
@@ -7512,16 +6897,16 @@
         <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D79" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E79" t="s">
-        <v>742</v>
+        <v>542</v>
       </c>
       <c r="F79" t="s">
-        <v>584</v>
+        <v>384</v>
       </c>
       <c r="G79">
         <v>1962</v>
@@ -7533,7 +6918,7 @@
         <v>25</v>
       </c>
       <c r="J79" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K79" t="s">
         <v>15</v>
@@ -7547,16 +6932,16 @@
         <v>70</v>
       </c>
       <c r="C80" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D80" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E80" t="s">
-        <v>702</v>
+        <v>502</v>
       </c>
       <c r="F80" t="s">
-        <v>535</v>
+        <v>335</v>
       </c>
       <c r="G80">
         <v>1962</v>
@@ -7568,7 +6953,7 @@
         <v>25</v>
       </c>
       <c r="J80" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K80" t="s">
         <v>11</v>
@@ -7582,16 +6967,16 @@
         <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D81" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E81" t="s">
-        <v>651</v>
+        <v>451</v>
       </c>
       <c r="F81" t="s">
-        <v>478</v>
+        <v>278</v>
       </c>
       <c r="G81">
         <v>1986</v>
@@ -7603,7 +6988,7 @@
         <v>25</v>
       </c>
       <c r="J81" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K81" t="s">
         <v>5</v>
@@ -7617,16 +7002,16 @@
         <v>72</v>
       </c>
       <c r="C82" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D82" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E82" t="s">
-        <v>659</v>
+        <v>459</v>
       </c>
       <c r="F82" t="s">
-        <v>486</v>
+        <v>286</v>
       </c>
       <c r="G82">
         <v>1977</v>
@@ -7638,7 +7023,7 @@
         <v>25</v>
       </c>
       <c r="J82" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K82" t="s">
         <v>5</v>
@@ -7652,16 +7037,16 @@
         <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D83" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E83" t="s">
-        <v>719</v>
+        <v>519</v>
       </c>
       <c r="F83" t="s">
-        <v>555</v>
+        <v>355</v>
       </c>
       <c r="G83">
         <v>2005</v>
@@ -7673,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K83" t="s">
         <v>13</v>
@@ -7687,16 +7072,16 @@
         <v>74</v>
       </c>
       <c r="C84" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D84" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E84" t="s">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="F84" t="s">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="G84">
         <v>1980</v>
@@ -7708,7 +7093,7 @@
         <v>25</v>
       </c>
       <c r="J84" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -7722,16 +7107,16 @@
         <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D85" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E85" t="s">
-        <v>749</v>
+        <v>549</v>
       </c>
       <c r="F85" t="s">
-        <v>589</v>
+        <v>389</v>
       </c>
       <c r="G85">
         <v>2013</v>
@@ -7743,7 +7128,7 @@
         <v>25</v>
       </c>
       <c r="J85" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K85" t="s">
         <v>15</v>
@@ -7757,16 +7142,16 @@
         <v>76</v>
       </c>
       <c r="C86" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D86" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E86" t="s">
-        <v>797</v>
+        <v>597</v>
       </c>
       <c r="F86" t="s">
-        <v>548</v>
+        <v>348</v>
       </c>
       <c r="G86">
         <v>2001</v>
@@ -7778,7 +7163,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K86" t="s">
         <v>11</v>
@@ -7792,16 +7177,16 @@
         <v>77</v>
       </c>
       <c r="C87" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D87" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E87" t="s">
-        <v>784</v>
+        <v>584</v>
       </c>
       <c r="F87" t="s">
-        <v>489</v>
+        <v>289</v>
       </c>
       <c r="G87">
         <v>2009</v>
@@ -7813,7 +7198,7 @@
         <v>25</v>
       </c>
       <c r="J87" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K87" t="s">
         <v>5</v>
@@ -7827,16 +7212,16 @@
         <v>78</v>
       </c>
       <c r="C88" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D88" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E88" t="s">
-        <v>747</v>
+        <v>547</v>
       </c>
       <c r="F88" t="s">
-        <v>569</v>
+        <v>369</v>
       </c>
       <c r="G88">
         <v>1975</v>
@@ -7848,7 +7233,7 @@
         <v>25</v>
       </c>
       <c r="J88" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K88" t="s">
         <v>15</v>
@@ -7862,16 +7247,16 @@
         <v>79</v>
       </c>
       <c r="C89" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D89" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E89" t="s">
-        <v>747</v>
+        <v>547</v>
       </c>
       <c r="F89" t="s">
-        <v>571</v>
+        <v>371</v>
       </c>
       <c r="G89">
         <v>1901</v>
@@ -7883,7 +7268,7 @@
         <v>25</v>
       </c>
       <c r="J89" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K89" t="s">
         <v>15</v>
@@ -7897,16 +7282,16 @@
         <v>79</v>
       </c>
       <c r="C90" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D90" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E90" t="s">
-        <v>747</v>
+        <v>547</v>
       </c>
       <c r="F90" t="s">
-        <v>571</v>
+        <v>371</v>
       </c>
       <c r="G90">
         <v>1982</v>
@@ -7918,7 +7303,7 @@
         <v>25</v>
       </c>
       <c r="J90" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K90" t="s">
         <v>15</v>
@@ -7932,16 +7317,16 @@
         <v>80</v>
       </c>
       <c r="C91" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D91" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E91" t="s">
-        <v>706</v>
+        <v>506</v>
       </c>
       <c r="F91" t="s">
-        <v>541</v>
+        <v>341</v>
       </c>
       <c r="G91">
         <v>1966</v>
@@ -7953,7 +7338,7 @@
         <v>25</v>
       </c>
       <c r="J91" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K91" t="s">
         <v>11</v>
@@ -7967,16 +7352,16 @@
         <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D92" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E92" t="s">
-        <v>655</v>
+        <v>455</v>
       </c>
       <c r="F92" t="s">
-        <v>482</v>
+        <v>282</v>
       </c>
       <c r="G92">
         <v>1952</v>
@@ -7988,7 +7373,7 @@
         <v>25</v>
       </c>
       <c r="J92" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K92" t="s">
         <v>5</v>
@@ -8002,16 +7387,16 @@
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D93" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E93" t="s">
-        <v>756</v>
+        <v>556</v>
       </c>
       <c r="F93" t="s">
-        <v>596</v>
+        <v>396</v>
       </c>
       <c r="G93">
         <v>2008</v>
@@ -8023,7 +7408,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K93" t="s">
         <v>17</v>
@@ -8037,16 +7422,16 @@
         <v>83</v>
       </c>
       <c r="C94" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D94" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E94" t="s">
-        <v>674</v>
+        <v>474</v>
       </c>
       <c r="F94" t="s">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="G94">
         <v>1903</v>
@@ -8058,7 +7443,7 @@
         <v>25</v>
       </c>
       <c r="J94" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K94" t="s">
         <v>7</v>
@@ -8072,16 +7457,16 @@
         <v>84</v>
       </c>
       <c r="C95" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D95" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E95" t="s">
-        <v>677</v>
+        <v>477</v>
       </c>
       <c r="F95" t="s">
-        <v>508</v>
+        <v>308</v>
       </c>
       <c r="G95">
         <v>1975</v>
@@ -8093,7 +7478,7 @@
         <v>25</v>
       </c>
       <c r="J95" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K95" t="s">
         <v>7</v>
@@ -8107,16 +7492,16 @@
         <v>85</v>
       </c>
       <c r="C96" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D96" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E96" t="s">
-        <v>671</v>
+        <v>471</v>
       </c>
       <c r="F96" t="s">
-        <v>502</v>
+        <v>302</v>
       </c>
       <c r="G96">
         <v>1992</v>
@@ -8128,7 +7513,7 @@
         <v>25</v>
       </c>
       <c r="J96" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K96" t="s">
         <v>7</v>
@@ -8142,16 +7527,16 @@
         <v>86</v>
       </c>
       <c r="C97" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D97" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E97" t="s">
-        <v>649</v>
+        <v>449</v>
       </c>
       <c r="F97" t="s">
-        <v>476</v>
+        <v>276</v>
       </c>
       <c r="G97">
         <v>1972</v>
@@ -8163,7 +7548,7 @@
         <v>25</v>
       </c>
       <c r="J97" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K97" t="s">
         <v>5</v>
@@ -8177,16 +7562,16 @@
         <v>87</v>
       </c>
       <c r="C98" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D98" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E98" t="s">
-        <v>790</v>
+        <v>590</v>
       </c>
       <c r="F98" t="s">
-        <v>581</v>
+        <v>381</v>
       </c>
       <c r="G98">
         <v>1925</v>
@@ -8198,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="J98" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K98" t="s">
         <v>15</v>
@@ -8212,16 +7597,16 @@
         <v>88</v>
       </c>
       <c r="C99" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D99" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E99" t="s">
-        <v>631</v>
+        <v>431</v>
       </c>
       <c r="F99" t="s">
-        <v>459</v>
+        <v>259</v>
       </c>
       <c r="G99">
         <v>1901</v>
@@ -8233,7 +7618,7 @@
         <v>25</v>
       </c>
       <c r="J99" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K99" t="s">
         <v>3</v>
@@ -8247,16 +7632,16 @@
         <v>89</v>
       </c>
       <c r="C100" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D100" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E100" t="s">
-        <v>631</v>
+        <v>431</v>
       </c>
       <c r="F100" t="s">
-        <v>587</v>
+        <v>387</v>
       </c>
       <c r="G100">
         <v>1919</v>
@@ -8268,7 +7653,7 @@
         <v>25</v>
       </c>
       <c r="J100" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K100" t="s">
         <v>15</v>
@@ -8282,16 +7667,16 @@
         <v>90</v>
       </c>
       <c r="C101" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D101" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E101" t="s">
-        <v>789</v>
+        <v>589</v>
       </c>
       <c r="F101" t="s">
-        <v>536</v>
+        <v>336</v>
       </c>
       <c r="G101">
         <v>1975</v>
@@ -8303,7 +7688,7 @@
         <v>25</v>
       </c>
       <c r="J101" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K101" t="s">
         <v>11</v>
@@ -8317,16 +7702,16 @@
         <v>91</v>
       </c>
       <c r="C102" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D102" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E102" t="s">
-        <v>634</v>
+        <v>434</v>
       </c>
       <c r="F102" t="s">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="G102">
         <v>1928</v>
@@ -8338,7 +7723,7 @@
         <v>25</v>
       </c>
       <c r="J102" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K102" t="s">
         <v>5</v>
@@ -8352,16 +7737,16 @@
         <v>91</v>
       </c>
       <c r="C103" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D103" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E103" t="s">
-        <v>634</v>
+        <v>434</v>
       </c>
       <c r="F103" t="s">
-        <v>462</v>
+        <v>262</v>
       </c>
       <c r="G103">
         <v>2008</v>
@@ -8373,7 +7758,7 @@
         <v>25</v>
       </c>
       <c r="J103" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K103" t="s">
         <v>5</v>
@@ -8387,16 +7772,16 @@
         <v>92</v>
       </c>
       <c r="C104" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D104" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>634</v>
+        <v>434</v>
       </c>
       <c r="F104" t="s">
-        <v>520</v>
+        <v>320</v>
       </c>
       <c r="G104">
         <v>1903</v>
@@ -8408,7 +7793,7 @@
         <v>25</v>
       </c>
       <c r="J104" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K104" t="s">
         <v>9</v>
@@ -8422,16 +7807,16 @@
         <v>93</v>
       </c>
       <c r="C105" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D105" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E105" t="s">
-        <v>711</v>
+        <v>511</v>
       </c>
       <c r="F105" t="s">
-        <v>546</v>
+        <v>346</v>
       </c>
       <c r="G105">
         <v>1970</v>
@@ -8443,7 +7828,7 @@
         <v>25</v>
       </c>
       <c r="J105" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K105" t="s">
         <v>11</v>
@@ -8457,16 +7842,16 @@
         <v>94</v>
       </c>
       <c r="C106" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D106" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E106" t="s">
-        <v>786</v>
+        <v>586</v>
       </c>
       <c r="F106" t="s">
-        <v>491</v>
+        <v>291</v>
       </c>
       <c r="G106">
         <v>1974</v>
@@ -8478,7 +7863,7 @@
         <v>25</v>
       </c>
       <c r="J106" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K106" t="s">
         <v>5</v>
@@ -8492,16 +7877,16 @@
         <v>95</v>
       </c>
       <c r="C107" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D107" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E107" t="s">
-        <v>787</v>
+        <v>587</v>
       </c>
       <c r="F107" t="s">
-        <v>494</v>
+        <v>294</v>
       </c>
       <c r="G107">
         <v>1928</v>
@@ -8513,7 +7898,7 @@
         <v>25</v>
       </c>
       <c r="J107" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K107" t="s">
         <v>5</v>
@@ -8527,16 +7912,16 @@
         <v>96</v>
       </c>
       <c r="C108" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D108" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E108" t="s">
-        <v>785</v>
+        <v>585</v>
       </c>
       <c r="F108" t="s">
-        <v>488</v>
+        <v>288</v>
       </c>
       <c r="G108">
         <v>1987</v>
@@ -8548,7 +7933,7 @@
         <v>25</v>
       </c>
       <c r="J108" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K108" t="s">
         <v>5</v>
@@ -8562,16 +7947,16 @@
         <v>97</v>
       </c>
       <c r="C109" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D109" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E109" t="s">
-        <v>788</v>
+        <v>588</v>
       </c>
       <c r="F109" t="s">
-        <v>534</v>
+        <v>334</v>
       </c>
       <c r="G109">
         <v>1996</v>
@@ -8583,7 +7968,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K109" t="s">
         <v>11</v>
@@ -8597,16 +7982,16 @@
         <v>98</v>
       </c>
       <c r="C110" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D110" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E110" t="s">
-        <v>636</v>
+        <v>436</v>
       </c>
       <c r="F110" t="s">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="G110">
         <v>1904</v>
@@ -8618,7 +8003,7 @@
         <v>25</v>
       </c>
       <c r="J110" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K110" t="s">
         <v>5</v>
@@ -8632,16 +8017,16 @@
         <v>99</v>
       </c>
       <c r="C111" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D111" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E111" t="s">
-        <v>766</v>
+        <v>566</v>
       </c>
       <c r="F111" t="s">
-        <v>609</v>
+        <v>409</v>
       </c>
       <c r="G111">
         <v>1998</v>
@@ -8653,7 +8038,7 @@
         <v>25</v>
       </c>
       <c r="J111" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K111" t="s">
         <v>21</v>
@@ -8667,16 +8052,16 @@
         <v>100</v>
       </c>
       <c r="C112" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D112" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E112" t="s">
-        <v>707</v>
+        <v>507</v>
       </c>
       <c r="F112" t="s">
-        <v>542</v>
+        <v>342</v>
       </c>
       <c r="G112">
         <v>1905</v>
@@ -8688,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K112" t="s">
         <v>11</v>
@@ -8702,16 +8087,16 @@
         <v>101</v>
       </c>
       <c r="C113" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D113" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E113" t="s">
-        <v>762</v>
+        <v>562</v>
       </c>
       <c r="F113" t="s">
-        <v>602</v>
+        <v>402</v>
       </c>
       <c r="G113">
         <v>1965</v>
@@ -8723,7 +8108,7 @@
         <v>25</v>
       </c>
       <c r="J113" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K113" t="s">
         <v>17</v>
@@ -8737,16 +8122,16 @@
         <v>102</v>
       </c>
       <c r="C114" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D114" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E114" t="s">
-        <v>635</v>
+        <v>435</v>
       </c>
       <c r="F114" t="s">
-        <v>463</v>
+        <v>263</v>
       </c>
       <c r="G114">
         <v>1911</v>
@@ -8758,7 +8143,7 @@
         <v>25</v>
       </c>
       <c r="J114" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K114" t="s">
         <v>5</v>
@@ -8772,16 +8157,16 @@
         <v>103</v>
       </c>
       <c r="C115" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D115" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E115" t="s">
-        <v>729</v>
+        <v>529</v>
       </c>
       <c r="F115" t="s">
-        <v>565</v>
+        <v>365</v>
       </c>
       <c r="G115">
         <v>1931</v>
@@ -8793,7 +8178,7 @@
         <v>25</v>
       </c>
       <c r="J115" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K115" t="s">
         <v>15</v>
@@ -8807,16 +8192,16 @@
         <v>104</v>
       </c>
       <c r="C116" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D116" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E116" t="s">
-        <v>791</v>
+        <v>591</v>
       </c>
       <c r="F116" t="s">
-        <v>607</v>
+        <v>407</v>
       </c>
       <c r="G116">
         <v>1990</v>
@@ -8828,7 +8213,7 @@
         <v>25</v>
       </c>
       <c r="J116" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K116" t="s">
         <v>19</v>
@@ -8842,16 +8227,16 @@
         <v>105</v>
       </c>
       <c r="C117" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D117" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E117" t="s">
-        <v>637</v>
+        <v>437</v>
       </c>
       <c r="F117" t="s">
-        <v>464</v>
+        <v>264</v>
       </c>
       <c r="G117">
         <v>1996</v>
@@ -8863,7 +8248,7 @@
         <v>25</v>
       </c>
       <c r="J117" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K117" t="s">
         <v>5</v>
@@ -8877,16 +8262,16 @@
         <v>106</v>
       </c>
       <c r="C118" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D118" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E118" t="s">
-        <v>637</v>
+        <v>437</v>
       </c>
       <c r="F118" t="s">
-        <v>464</v>
+        <v>264</v>
       </c>
       <c r="G118">
         <v>1949</v>
@@ -8898,7 +8283,7 @@
         <v>25</v>
       </c>
       <c r="J118" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K118" t="s">
         <v>21</v>
@@ -8912,16 +8297,16 @@
         <v>107</v>
       </c>
       <c r="C119" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D119" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E119" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F119" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="G119">
         <v>2004</v>
@@ -8933,7 +8318,7 @@
         <v>25</v>
       </c>
       <c r="J119" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K119" t="s">
         <v>3</v>
@@ -8947,16 +8332,16 @@
         <v>107</v>
       </c>
       <c r="C120" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D120" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E120" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F120" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="G120">
         <v>1916</v>
@@ -8968,7 +8353,7 @@
         <v>25</v>
       </c>
       <c r="J120" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K120" t="s">
         <v>9</v>
@@ -8982,16 +8367,16 @@
         <v>107</v>
       </c>
       <c r="C121" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D121" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E121" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F121" t="s">
-        <v>447</v>
+        <v>247</v>
       </c>
       <c r="G121">
         <v>1968</v>
@@ -9003,7 +8388,7 @@
         <v>25</v>
       </c>
       <c r="J121" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K121" t="s">
         <v>11</v>
@@ -9017,16 +8402,16 @@
         <v>108</v>
       </c>
       <c r="C122" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D122" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E122" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F122" t="s">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="G122">
         <v>1986</v>
@@ -9038,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K122" t="s">
         <v>13</v>
@@ -9052,16 +8437,16 @@
         <v>108</v>
       </c>
       <c r="C123" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D123" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E123" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F123" t="s">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="G123">
         <v>1972</v>
@@ -9073,7 +8458,7 @@
         <v>25</v>
       </c>
       <c r="J123" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K123" t="s">
         <v>13</v>
@@ -9087,16 +8472,16 @@
         <v>108</v>
       </c>
       <c r="C124" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D124" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E124" t="s">
-        <v>619</v>
+        <v>419</v>
       </c>
       <c r="F124" t="s">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="G124">
         <v>1958</v>
@@ -9108,7 +8493,7 @@
         <v>25</v>
       </c>
       <c r="J124" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K124" t="s">
         <v>15</v>
@@ -9122,16 +8507,16 @@
         <v>109</v>
       </c>
       <c r="C125" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D125" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E125" t="s">
-        <v>693</v>
+        <v>493</v>
       </c>
       <c r="F125" t="s">
-        <v>524</v>
+        <v>324</v>
       </c>
       <c r="G125">
         <v>1920</v>
@@ -9143,7 +8528,7 @@
         <v>25</v>
       </c>
       <c r="J125" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K125" t="s">
         <v>9</v>
@@ -9157,16 +8542,16 @@
         <v>110</v>
       </c>
       <c r="C126" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D126" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E126" t="s">
-        <v>793</v>
+        <v>593</v>
       </c>
       <c r="F126" t="s">
-        <v>606</v>
+        <v>406</v>
       </c>
       <c r="G126">
         <v>1990</v>
@@ -9178,7 +8563,7 @@
         <v>25</v>
       </c>
       <c r="J126" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K126" t="s">
         <v>19</v>
@@ -9192,16 +8577,16 @@
         <v>111</v>
       </c>
       <c r="C127" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D127" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E127" t="s">
-        <v>792</v>
+        <v>592</v>
       </c>
       <c r="F127" t="s">
-        <v>471</v>
+        <v>271</v>
       </c>
       <c r="G127">
         <v>1947</v>
@@ -9213,7 +8598,7 @@
         <v>25</v>
       </c>
       <c r="J127" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K127" t="s">
         <v>5</v>
@@ -9227,16 +8612,16 @@
         <v>112</v>
       </c>
       <c r="C128" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D128" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E128" t="s">
-        <v>698</v>
+        <v>498</v>
       </c>
       <c r="F128" t="s">
-        <v>530</v>
+        <v>330</v>
       </c>
       <c r="G128">
         <v>1970</v>
@@ -9248,7 +8633,7 @@
         <v>25</v>
       </c>
       <c r="J128" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K128" t="s">
         <v>9</v>
@@ -9262,16 +8647,16 @@
         <v>113</v>
       </c>
       <c r="C129" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D129" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E129" t="s">
-        <v>798</v>
+        <v>598</v>
       </c>
       <c r="F129" t="s">
-        <v>526</v>
+        <v>326</v>
       </c>
       <c r="G129">
         <v>1978</v>
@@ -9283,7 +8668,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K129" t="s">
         <v>9</v>
@@ -9297,16 +8682,16 @@
         <v>114</v>
       </c>
       <c r="C130" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D130" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E130" t="s">
-        <v>709</v>
+        <v>509</v>
       </c>
       <c r="F130" t="s">
-        <v>544</v>
+        <v>344</v>
       </c>
       <c r="G130">
         <v>1913</v>
@@ -9318,7 +8703,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K130" t="s">
         <v>11</v>
@@ -9332,16 +8717,16 @@
         <v>115</v>
       </c>
       <c r="C131" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D131" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E131" t="s">
-        <v>667</v>
+        <v>467</v>
       </c>
       <c r="F131" t="s">
-        <v>498</v>
+        <v>298</v>
       </c>
       <c r="G131">
         <v>1995</v>
@@ -9353,7 +8738,7 @@
         <v>25</v>
       </c>
       <c r="J131" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K131" t="s">
         <v>7</v>
@@ -9367,16 +8752,16 @@
         <v>116</v>
       </c>
       <c r="C132" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D132" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E132" t="s">
-        <v>759</v>
+        <v>559</v>
       </c>
       <c r="F132" t="s">
-        <v>599</v>
+        <v>399</v>
       </c>
       <c r="G132">
         <v>1936</v>
@@ -9388,7 +8773,7 @@
         <v>25</v>
       </c>
       <c r="J132" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K132" t="s">
         <v>17</v>
@@ -9402,16 +8787,16 @@
         <v>117</v>
       </c>
       <c r="C133" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D133" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E133" t="s">
-        <v>669</v>
+        <v>469</v>
       </c>
       <c r="F133" t="s">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="G133">
         <v>2004</v>
@@ -9423,7 +8808,7 @@
         <v>25</v>
       </c>
       <c r="J133" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K133" t="s">
         <v>7</v>
@@ -9437,16 +8822,16 @@
         <v>118</v>
       </c>
       <c r="C134" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D134" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E134" t="s">
-        <v>727</v>
+        <v>527</v>
       </c>
       <c r="F134" t="s">
-        <v>563</v>
+        <v>363</v>
       </c>
       <c r="G134">
         <v>1988</v>
@@ -9458,7 +8843,7 @@
         <v>25</v>
       </c>
       <c r="J134" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K134" t="s">
         <v>15</v>
@@ -9472,16 +8857,16 @@
         <v>119</v>
       </c>
       <c r="C135" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D135" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E135" t="s">
-        <v>663</v>
+        <v>463</v>
       </c>
       <c r="F135" t="s">
-        <v>493</v>
+        <v>293</v>
       </c>
       <c r="G135">
         <v>1929</v>
@@ -9493,7 +8878,7 @@
         <v>25</v>
       </c>
       <c r="J135" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K135" t="s">
         <v>5</v>
@@ -9507,16 +8892,16 @@
         <v>120</v>
       </c>
       <c r="C136" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D136" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E136" t="s">
-        <v>722</v>
+        <v>522</v>
       </c>
       <c r="F136" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="G136">
         <v>1906</v>
@@ -9528,7 +8913,7 @@
         <v>25</v>
       </c>
       <c r="J136" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K136" t="s">
         <v>13</v>
@@ -9542,16 +8927,16 @@
         <v>120</v>
       </c>
       <c r="C137" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D137" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E137" t="s">
-        <v>722</v>
+        <v>522</v>
       </c>
       <c r="F137" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="G137">
         <v>2008</v>
@@ -9563,7 +8948,7 @@
         <v>25</v>
       </c>
       <c r="J137" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K137" t="s">
         <v>13</v>
@@ -9577,16 +8962,16 @@
         <v>120</v>
       </c>
       <c r="C138" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D138" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E138" t="s">
-        <v>722</v>
+        <v>522</v>
       </c>
       <c r="F138" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="G138">
         <v>2008</v>
@@ -9598,7 +8983,7 @@
         <v>25</v>
       </c>
       <c r="J138" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K138" t="s">
         <v>13</v>
@@ -9612,16 +8997,16 @@
         <v>121</v>
       </c>
       <c r="C139" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D139" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E139" t="s">
-        <v>643</v>
+        <v>443</v>
       </c>
       <c r="F139" t="s">
-        <v>801</v>
+        <v>601</v>
       </c>
       <c r="G139">
         <v>1985</v>
@@ -9633,7 +9018,7 @@
         <v>25</v>
       </c>
       <c r="J139" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K139" t="s">
         <v>5</v>
@@ -9647,16 +9032,16 @@
         <v>122</v>
       </c>
       <c r="C140" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D140" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E140" t="s">
-        <v>623</v>
+        <v>423</v>
       </c>
       <c r="F140" t="s">
-        <v>452</v>
+        <v>252</v>
       </c>
       <c r="G140">
         <v>1931</v>
@@ -9668,7 +9053,7 @@
         <v>25</v>
       </c>
       <c r="J140" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K140" t="s">
         <v>3</v>
@@ -9682,16 +9067,16 @@
         <v>123</v>
       </c>
       <c r="C141" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D141" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E141" t="s">
-        <v>661</v>
+        <v>461</v>
       </c>
       <c r="F141" t="s">
-        <v>490</v>
+        <v>290</v>
       </c>
       <c r="G141">
         <v>1920</v>
@@ -9703,7 +9088,7 @@
         <v>25</v>
       </c>
       <c r="J141" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K141" t="s">
         <v>5</v>
@@ -9717,16 +9102,16 @@
         <v>124</v>
       </c>
       <c r="C142" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D142" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E142" t="s">
-        <v>673</v>
+        <v>473</v>
       </c>
       <c r="F142" t="s">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="G142">
         <v>1910</v>
@@ -9738,7 +9123,7 @@
         <v>25</v>
       </c>
       <c r="J142" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K142" t="s">
         <v>7</v>
@@ -9752,16 +9137,16 @@
         <v>125</v>
       </c>
       <c r="C143" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D143" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E143" t="s">
-        <v>744</v>
+        <v>544</v>
       </c>
       <c r="F143" t="s">
-        <v>586</v>
+        <v>386</v>
       </c>
       <c r="G143">
         <v>1913</v>
@@ -9773,7 +9158,7 @@
         <v>25</v>
       </c>
       <c r="J143" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K143" t="s">
         <v>15</v>
@@ -9787,16 +9172,16 @@
         <v>126</v>
       </c>
       <c r="C144" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D144" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E144" t="s">
-        <v>737</v>
+        <v>537</v>
       </c>
       <c r="F144" t="s">
-        <v>578</v>
+        <v>378</v>
       </c>
       <c r="G144">
         <v>1928</v>
@@ -9808,7 +9193,7 @@
         <v>25</v>
       </c>
       <c r="J144" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K144" t="s">
         <v>15</v>
@@ -9822,16 +9207,16 @@
         <v>127</v>
       </c>
       <c r="C145" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D145" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E145" t="s">
-        <v>658</v>
+        <v>458</v>
       </c>
       <c r="F145" t="s">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="G145">
         <v>2005</v>
@@ -9843,7 +9228,7 @@
         <v>25</v>
       </c>
       <c r="J145" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K145" t="s">
         <v>5</v>
@@ -9857,16 +9242,16 @@
         <v>128</v>
       </c>
       <c r="C146" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D146" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E146" t="s">
-        <v>617</v>
+        <v>417</v>
       </c>
       <c r="F146" t="s">
-        <v>445</v>
+        <v>245</v>
       </c>
       <c r="G146">
         <v>1911</v>
@@ -9878,7 +9263,7 @@
         <v>25</v>
       </c>
       <c r="J146" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K146" t="s">
         <v>3</v>
@@ -9892,16 +9277,16 @@
         <v>129</v>
       </c>
       <c r="C147" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D147" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E147" t="s">
-        <v>616</v>
+        <v>416</v>
       </c>
       <c r="F147" t="s">
-        <v>444</v>
+        <v>244</v>
       </c>
       <c r="G147">
         <v>1922</v>
@@ -9913,7 +9298,7 @@
         <v>25</v>
       </c>
       <c r="J147" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K147" t="s">
         <v>3</v>
@@ -9927,16 +9312,16 @@
         <v>130</v>
       </c>
       <c r="C148" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D148" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E148" t="s">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="F148" t="s">
-        <v>531</v>
+        <v>331</v>
       </c>
       <c r="G148">
         <v>1944</v>
@@ -9948,7 +9333,7 @@
         <v>25</v>
       </c>
       <c r="J148" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K148" t="s">
         <v>9</v>
@@ -9962,16 +9347,16 @@
         <v>131</v>
       </c>
       <c r="C149" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D149" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E149" t="s">
-        <v>626</v>
+        <v>426</v>
       </c>
       <c r="F149" t="s">
-        <v>455</v>
+        <v>255</v>
       </c>
       <c r="G149">
         <v>1938</v>
@@ -9983,7 +9368,7 @@
         <v>25</v>
       </c>
       <c r="J149" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K149" t="s">
         <v>3</v>
@@ -9997,16 +9382,16 @@
         <v>132</v>
       </c>
       <c r="C150" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D150" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E150" t="s">
-        <v>688</v>
+        <v>488</v>
       </c>
       <c r="F150" t="s">
-        <v>518</v>
+        <v>318</v>
       </c>
       <c r="G150">
         <v>1934</v>
@@ -10018,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K150" t="s">
         <v>9</v>
@@ -10032,16 +9417,16 @@
         <v>133</v>
       </c>
       <c r="C151" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D151" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E151" t="s">
-        <v>648</v>
+        <v>448</v>
       </c>
       <c r="F151" t="s">
-        <v>475</v>
+        <v>275</v>
       </c>
       <c r="G151">
         <v>1904</v>
@@ -10053,7 +9438,7 @@
         <v>25</v>
       </c>
       <c r="J151" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K151" t="s">
         <v>5</v>
@@ -10067,16 +9452,16 @@
         <v>134</v>
       </c>
       <c r="C152" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D152" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E152" t="s">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="F152" t="s">
-        <v>532</v>
+        <v>332</v>
       </c>
       <c r="G152">
         <v>2004</v>
@@ -10088,7 +9473,7 @@
         <v>25</v>
       </c>
       <c r="J152" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K152" t="s">
         <v>9</v>
@@ -10102,16 +9487,16 @@
         <v>135</v>
       </c>
       <c r="C153" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D153" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E153" t="s">
-        <v>654</v>
+        <v>454</v>
       </c>
       <c r="F153" t="s">
-        <v>481</v>
+        <v>281</v>
       </c>
       <c r="G153">
         <v>1984</v>
@@ -10123,7 +9508,7 @@
         <v>25</v>
       </c>
       <c r="J153" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K153" t="s">
         <v>5</v>
@@ -10137,16 +9522,16 @@
         <v>136</v>
       </c>
       <c r="C154" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D154" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E154" t="s">
-        <v>731</v>
+        <v>531</v>
       </c>
       <c r="F154" t="s">
-        <v>570</v>
+        <v>370</v>
       </c>
       <c r="G154">
         <v>1903</v>
@@ -10158,7 +9543,7 @@
         <v>25</v>
       </c>
       <c r="J154" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K154" t="s">
         <v>15</v>
@@ -10172,16 +9557,16 @@
         <v>137</v>
       </c>
       <c r="C155" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D155" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E155" t="s">
-        <v>735</v>
+        <v>535</v>
       </c>
       <c r="F155" t="s">
-        <v>576</v>
+        <v>376</v>
       </c>
       <c r="G155">
         <v>1957</v>
@@ -10193,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K155" t="s">
         <v>15</v>
@@ -10207,16 +9592,16 @@
         <v>138</v>
       </c>
       <c r="C156" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D156" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E156" t="s">
-        <v>625</v>
+        <v>425</v>
       </c>
       <c r="F156" t="s">
-        <v>454</v>
+        <v>254</v>
       </c>
       <c r="G156">
         <v>1926</v>
@@ -10228,7 +9613,7 @@
         <v>25</v>
       </c>
       <c r="J156" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K156" t="s">
         <v>3</v>
@@ -10242,16 +9627,16 @@
         <v>139</v>
       </c>
       <c r="C157" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D157" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E157" t="s">
-        <v>682</v>
+        <v>482</v>
       </c>
       <c r="F157" t="s">
-        <v>512</v>
+        <v>312</v>
       </c>
       <c r="G157">
         <v>1900</v>
@@ -10263,7 +9648,7 @@
         <v>25</v>
       </c>
       <c r="J157" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K157" t="s">
         <v>7</v>
@@ -10277,16 +9662,16 @@
         <v>140</v>
       </c>
       <c r="C158" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D158" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E158" t="s">
-        <v>681</v>
+        <v>481</v>
       </c>
       <c r="F158" t="s">
-        <v>511</v>
+        <v>311</v>
       </c>
       <c r="G158">
         <v>1944</v>
@@ -10298,7 +9683,7 @@
         <v>25</v>
       </c>
       <c r="J158" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K158" t="s">
         <v>7</v>
@@ -10312,16 +9697,16 @@
         <v>141</v>
       </c>
       <c r="C159" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D159" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E159" t="s">
-        <v>686</v>
+        <v>486</v>
       </c>
       <c r="F159" t="s">
-        <v>516</v>
+        <v>316</v>
       </c>
       <c r="G159">
         <v>1991</v>
@@ -10333,7 +9718,7 @@
         <v>25</v>
       </c>
       <c r="J159" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K159" t="s">
         <v>9</v>
@@ -10347,16 +9732,16 @@
         <v>142</v>
       </c>
       <c r="C160" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D160" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E160" t="s">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="F160" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="G160">
         <v>1928</v>
@@ -10368,7 +9753,7 @@
         <v>25</v>
       </c>
       <c r="J160" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K160" t="s">
         <v>5</v>
@@ -10382,16 +9767,16 @@
         <v>142</v>
       </c>
       <c r="C161" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D161" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E161" t="s">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="F161" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="G161">
         <v>1931</v>
@@ -10403,7 +9788,7 @@
         <v>25</v>
       </c>
       <c r="J161" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K161" t="s">
         <v>5</v>
@@ -10417,16 +9802,16 @@
         <v>142</v>
       </c>
       <c r="C162" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D162" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E162" t="s">
-        <v>656</v>
+        <v>456</v>
       </c>
       <c r="F162" t="s">
-        <v>483</v>
+        <v>283</v>
       </c>
       <c r="G162">
         <v>1939</v>
@@ -10438,7 +9823,7 @@
         <v>25</v>
       </c>
       <c r="J162" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K162" t="s">
         <v>7</v>
@@ -10452,16 +9837,16 @@
         <v>143</v>
       </c>
       <c r="C163" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D163" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E163" t="s">
-        <v>615</v>
+        <v>415</v>
       </c>
       <c r="F163" t="s">
-        <v>443</v>
+        <v>243</v>
       </c>
       <c r="G163">
         <v>1945</v>
@@ -10473,7 +9858,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K163" t="s">
         <v>3</v>
@@ -10487,16 +9872,16 @@
         <v>144</v>
       </c>
       <c r="C164" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D164" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E164" t="s">
-        <v>704</v>
+        <v>504</v>
       </c>
       <c r="F164" t="s">
-        <v>538</v>
+        <v>338</v>
       </c>
       <c r="G164">
         <v>1920</v>
@@ -10508,7 +9893,7 @@
         <v>25</v>
       </c>
       <c r="J164" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K164" t="s">
         <v>11</v>
@@ -10522,16 +9907,16 @@
         <v>145</v>
       </c>
       <c r="C165" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D165" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E165" t="s">
-        <v>641</v>
+        <v>441</v>
       </c>
       <c r="F165" t="s">
-        <v>468</v>
+        <v>268</v>
       </c>
       <c r="G165">
         <v>1938</v>
@@ -10543,7 +9928,7 @@
         <v>25</v>
       </c>
       <c r="J165" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K165" t="s">
         <v>5</v>
@@ -10557,16 +9942,16 @@
         <v>146</v>
       </c>
       <c r="C166" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D166" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E166" t="s">
-        <v>741</v>
+        <v>541</v>
       </c>
       <c r="F166" t="s">
-        <v>583</v>
+        <v>383</v>
       </c>
       <c r="G166">
         <v>2011</v>
@@ -10578,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K166" t="s">
         <v>15</v>
@@ -10592,16 +9977,16 @@
         <v>147</v>
       </c>
       <c r="C167" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D167" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E167" t="s">
-        <v>676</v>
+        <v>476</v>
       </c>
       <c r="F167" t="s">
-        <v>507</v>
+        <v>307</v>
       </c>
       <c r="G167">
         <v>1983</v>
@@ -10613,7 +9998,7 @@
         <v>25</v>
       </c>
       <c r="J167" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K167" t="s">
         <v>7</v>
@@ -10627,16 +10012,16 @@
         <v>148</v>
       </c>
       <c r="C168" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D168" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E168" t="s">
-        <v>629</v>
+        <v>429</v>
       </c>
       <c r="F168" t="s">
-        <v>457</v>
+        <v>257</v>
       </c>
       <c r="G168">
         <v>1958</v>
@@ -10648,7 +10033,7 @@
         <v>25</v>
       </c>
       <c r="J168" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K168" t="s">
         <v>3</v>
@@ -10662,16 +10047,16 @@
         <v>149</v>
       </c>
       <c r="C169" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D169" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E169" t="s">
-        <v>690</v>
+        <v>490</v>
       </c>
       <c r="F169" t="s">
-        <v>521</v>
+        <v>321</v>
       </c>
       <c r="G169">
         <v>1932</v>
@@ -10683,7 +10068,7 @@
         <v>25</v>
       </c>
       <c r="J169" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K169" t="s">
         <v>9</v>
@@ -10697,16 +10082,16 @@
         <v>150</v>
       </c>
       <c r="C170" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D170" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E170" t="s">
-        <v>760</v>
+        <v>560</v>
       </c>
       <c r="F170" t="s">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="G170">
         <v>1989</v>
@@ -10718,7 +10103,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K170" t="s">
         <v>17</v>
@@ -10732,16 +10117,16 @@
         <v>151</v>
       </c>
       <c r="C171" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D171" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E171" t="s">
-        <v>657</v>
+        <v>457</v>
       </c>
       <c r="F171" t="s">
-        <v>484</v>
+        <v>284</v>
       </c>
       <c r="G171">
         <v>1999</v>
@@ -10753,7 +10138,7 @@
         <v>25</v>
       </c>
       <c r="J171" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K171" t="s">
         <v>5</v>
@@ -10767,16 +10152,16 @@
         <v>152</v>
       </c>
       <c r="C172" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D172" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E172" t="s">
-        <v>708</v>
+        <v>508</v>
       </c>
       <c r="F172" t="s">
-        <v>543</v>
+        <v>343</v>
       </c>
       <c r="G172">
         <v>1993</v>
@@ -10788,7 +10173,7 @@
         <v>25</v>
       </c>
       <c r="J172" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K172" t="s">
         <v>11</v>
@@ -10802,16 +10187,16 @@
         <v>153</v>
       </c>
       <c r="C173" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D173" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E173" t="s">
-        <v>666</v>
+        <v>466</v>
       </c>
       <c r="F173" t="s">
-        <v>497</v>
+        <v>297</v>
       </c>
       <c r="G173">
         <v>2001</v>
@@ -10823,7 +10208,7 @@
         <v>25</v>
       </c>
       <c r="J173" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K173" t="s">
         <v>7</v>
@@ -10837,16 +10222,16 @@
         <v>154</v>
       </c>
       <c r="C174" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D174" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E174" t="s">
-        <v>728</v>
+        <v>528</v>
       </c>
       <c r="F174" t="s">
-        <v>564</v>
+        <v>364</v>
       </c>
       <c r="G174">
         <v>2003</v>
@@ -10858,7 +10243,7 @@
         <v>25</v>
       </c>
       <c r="J174" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K174" t="s">
         <v>15</v>
@@ -10872,16 +10257,16 @@
         <v>155</v>
       </c>
       <c r="C175" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D175" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E175" t="s">
-        <v>633</v>
+        <v>433</v>
       </c>
       <c r="F175" t="s">
-        <v>461</v>
+        <v>261</v>
       </c>
       <c r="G175">
         <v>1970</v>
@@ -10893,7 +10278,7 @@
         <v>25</v>
       </c>
       <c r="J175" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K175" t="s">
         <v>5</v>
@@ -10907,16 +10292,16 @@
         <v>156</v>
       </c>
       <c r="C176" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D176" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E176" t="s">
-        <v>684</v>
+        <v>484</v>
       </c>
       <c r="F176" t="s">
-        <v>514</v>
+        <v>314</v>
       </c>
       <c r="G176">
         <v>1906</v>
@@ -10928,7 +10313,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K176" t="s">
         <v>9</v>
@@ -10942,16 +10327,16 @@
         <v>157</v>
       </c>
       <c r="C177" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D177" t="s">
-        <v>612</v>
+        <v>412</v>
       </c>
       <c r="E177" t="s">
-        <v>701</v>
+        <v>501</v>
       </c>
       <c r="F177" t="s">
-        <v>533</v>
+        <v>333</v>
       </c>
       <c r="G177">
         <v>1927</v>
@@ -10963,7 +10348,7 @@
         <v>25</v>
       </c>
       <c r="J177" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K177" t="s">
         <v>11</v>
@@ -10977,16 +10362,16 @@
         <v>158</v>
       </c>
       <c r="C178" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D178" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E178" t="s">
-        <v>683</v>
+        <v>483</v>
       </c>
       <c r="F178" t="s">
-        <v>513</v>
+        <v>313</v>
       </c>
       <c r="G178">
         <v>1954</v>
@@ -10998,7 +10383,7 @@
         <v>25</v>
       </c>
       <c r="J178" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K178" t="s">
         <v>9</v>
@@ -11012,16 +10397,16 @@
         <v>159</v>
       </c>
       <c r="C179" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D179" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E179" t="s">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="F179" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="G179">
         <v>1915</v>
@@ -11033,7 +10418,7 @@
         <v>25</v>
       </c>
       <c r="J179" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K179" t="s">
         <v>3</v>
@@ -11047,16 +10432,16 @@
         <v>159</v>
       </c>
       <c r="C180" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D180" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E180" t="s">
-        <v>620</v>
+        <v>420</v>
       </c>
       <c r="F180" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
       <c r="G180">
         <v>1959</v>
@@ -11068,7 +10453,7 @@
         <v>25</v>
       </c>
       <c r="J180" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K180" t="s">
         <v>3</v>
@@ -11082,16 +10467,16 @@
         <v>160</v>
       </c>
       <c r="C181" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D181" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E181" t="s">
-        <v>753</v>
+        <v>553</v>
       </c>
       <c r="F181" t="s">
-        <v>593</v>
+        <v>393</v>
       </c>
       <c r="G181">
         <v>1919</v>
@@ -11103,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K181" t="s">
         <v>15</v>
@@ -11117,16 +10502,16 @@
         <v>161</v>
       </c>
       <c r="C182" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D182" t="s">
-        <v>613</v>
+        <v>413</v>
       </c>
       <c r="E182" t="s">
-        <v>738</v>
+        <v>538</v>
       </c>
       <c r="F182" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="G182">
         <v>1998</v>
@@ -11138,7 +10523,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K182" t="s">
         <v>15</v>
@@ -11152,16 +10537,16 @@
         <v>162</v>
       </c>
       <c r="C183" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D183" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E183" t="s">
-        <v>738</v>
+        <v>538</v>
       </c>
       <c r="F183" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="G183">
         <v>1968</v>
@@ -11173,7 +10558,7 @@
         <v>25</v>
       </c>
       <c r="J183" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K183" t="s">
         <v>15</v>
@@ -11187,16 +10572,16 @@
         <v>163</v>
       </c>
       <c r="C184" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D184" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E184" t="s">
-        <v>632</v>
+        <v>432</v>
       </c>
       <c r="F184" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
       <c r="G184">
         <v>1906</v>
@@ -11208,7 +10593,7 @@
         <v>25</v>
       </c>
       <c r="J184" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K184" t="s">
         <v>5</v>
@@ -11222,16 +10607,16 @@
         <v>164</v>
       </c>
       <c r="C185" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D185" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E185" t="s">
-        <v>652</v>
+        <v>452</v>
       </c>
       <c r="F185" t="s">
-        <v>479</v>
+        <v>279</v>
       </c>
       <c r="G185">
         <v>1981</v>
@@ -11243,7 +10628,7 @@
         <v>25</v>
       </c>
       <c r="J185" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K185" t="s">
         <v>5</v>
@@ -11257,16 +10642,16 @@
         <v>165</v>
       </c>
       <c r="C186" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D186" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s">
-        <v>765</v>
+        <v>565</v>
       </c>
       <c r="F186" t="s">
-        <v>608</v>
+        <v>408</v>
       </c>
       <c r="G186">
         <v>1956</v>
@@ -11278,7 +10663,7 @@
         <v>25</v>
       </c>
       <c r="J186" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K186" t="s">
         <v>21</v>
@@ -11292,16 +10677,16 @@
         <v>166</v>
       </c>
       <c r="C187" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D187" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E187" t="s">
-        <v>696</v>
+        <v>496</v>
       </c>
       <c r="F187" t="s">
-        <v>528</v>
+        <v>328</v>
       </c>
       <c r="G187">
         <v>1981</v>
@@ -11313,7 +10698,7 @@
         <v>25</v>
       </c>
       <c r="J187" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K187" t="s">
         <v>9</v>
@@ -11327,16 +10712,16 @@
         <v>167</v>
       </c>
       <c r="C188" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D188" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E188" t="s">
-        <v>721</v>
+        <v>521</v>
       </c>
       <c r="F188" t="s">
-        <v>557</v>
+        <v>357</v>
       </c>
       <c r="G188">
         <v>1921</v>
@@ -11348,7 +10733,7 @@
         <v>25</v>
       </c>
       <c r="J188" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K188" t="s">
         <v>13</v>
@@ -11362,16 +10747,16 @@
         <v>168</v>
       </c>
       <c r="C189" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D189" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E189" t="s">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="F189" t="s">
-        <v>477</v>
+        <v>277</v>
       </c>
       <c r="G189">
         <v>1928</v>
@@ -11383,7 +10768,7 @@
         <v>25</v>
       </c>
       <c r="J189" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K189" t="s">
         <v>5</v>
@@ -11397,16 +10782,16 @@
         <v>169</v>
       </c>
       <c r="C190" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D190" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E190" t="s">
-        <v>763</v>
+        <v>563</v>
       </c>
       <c r="F190" t="s">
-        <v>604</v>
+        <v>404</v>
       </c>
       <c r="G190">
         <v>1957</v>
@@ -11418,7 +10803,7 @@
         <v>25</v>
       </c>
       <c r="J190" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K190" t="s">
         <v>19</v>
@@ -11432,16 +10817,16 @@
         <v>170</v>
       </c>
       <c r="C191" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D191" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E191" t="s">
-        <v>732</v>
+        <v>532</v>
       </c>
       <c r="F191" t="s">
-        <v>572</v>
+        <v>372</v>
       </c>
       <c r="G191">
         <v>1926</v>
@@ -11453,7 +10838,7 @@
         <v>25</v>
       </c>
       <c r="J191" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K191" t="s">
         <v>15</v>
@@ -11467,16 +10852,16 @@
         <v>171</v>
       </c>
       <c r="C192" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D192" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E192" t="s">
-        <v>712</v>
+        <v>512</v>
       </c>
       <c r="F192" t="s">
-        <v>547</v>
+        <v>347</v>
       </c>
       <c r="G192">
         <v>2003</v>
@@ -11488,7 +10873,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K192" t="s">
         <v>11</v>
@@ -11502,16 +10887,16 @@
         <v>171</v>
       </c>
       <c r="C193" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D193" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E193" t="s">
-        <v>712</v>
+        <v>512</v>
       </c>
       <c r="F193" t="s">
-        <v>547</v>
+        <v>347</v>
       </c>
       <c r="G193">
         <v>1917</v>
@@ -11523,7 +10908,7 @@
         <v>25</v>
       </c>
       <c r="J193" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K193" t="s">
         <v>13</v>
@@ -11537,16 +10922,16 @@
         <v>172</v>
       </c>
       <c r="C194" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D194" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E194" t="s">
-        <v>746</v>
+        <v>546</v>
       </c>
       <c r="F194" t="s">
-        <v>588</v>
+        <v>388</v>
       </c>
       <c r="G194">
         <v>1922</v>
@@ -11558,7 +10943,7 @@
         <v>25</v>
       </c>
       <c r="J194" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K194" t="s">
         <v>15</v>
@@ -11572,16 +10957,16 @@
         <v>173</v>
       </c>
       <c r="C195" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D195" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E195" t="s">
-        <v>743</v>
+        <v>543</v>
       </c>
       <c r="F195" t="s">
-        <v>585</v>
+        <v>385</v>
       </c>
       <c r="G195">
         <v>1917</v>
@@ -11593,7 +10978,7 @@
         <v>25</v>
       </c>
       <c r="J195" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K195" t="s">
         <v>15</v>
@@ -11607,16 +10992,16 @@
         <v>174</v>
       </c>
       <c r="C196" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D196" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E196" t="s">
-        <v>692</v>
+        <v>492</v>
       </c>
       <c r="F196" t="s">
-        <v>523</v>
+        <v>323</v>
       </c>
       <c r="G196">
         <v>1934</v>
@@ -11628,7 +11013,7 @@
         <v>25</v>
       </c>
       <c r="J196" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K196" t="s">
         <v>9</v>
@@ -11642,16 +11027,16 @@
         <v>175</v>
       </c>
       <c r="C197" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D197" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E197" t="s">
-        <v>726</v>
+        <v>526</v>
       </c>
       <c r="F197" t="s">
-        <v>562</v>
+        <v>362</v>
       </c>
       <c r="G197">
         <v>1955</v>
@@ -11663,7 +11048,7 @@
         <v>25</v>
       </c>
       <c r="J197" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K197" t="s">
         <v>13</v>
@@ -11677,16 +11062,16 @@
         <v>175</v>
       </c>
       <c r="C198" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D198" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E198" t="s">
-        <v>726</v>
+        <v>526</v>
       </c>
       <c r="F198" t="s">
-        <v>562</v>
+        <v>362</v>
       </c>
       <c r="G198">
         <v>1983</v>
@@ -11698,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K198" t="s">
         <v>19</v>
@@ -11712,16 +11097,16 @@
         <v>176</v>
       </c>
       <c r="C199" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D199" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E199" t="s">
-        <v>713</v>
+        <v>513</v>
       </c>
       <c r="F199" t="s">
-        <v>549</v>
+        <v>349</v>
       </c>
       <c r="G199">
         <v>1947</v>
@@ -11733,7 +11118,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K199" t="s">
         <v>13</v>
@@ -11747,16 +11132,16 @@
         <v>176</v>
       </c>
       <c r="C200" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D200" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E200" t="s">
-        <v>713</v>
+        <v>513</v>
       </c>
       <c r="F200" t="s">
-        <v>549</v>
+        <v>349</v>
       </c>
       <c r="G200">
         <v>1972</v>
@@ -11768,7 +11153,7 @@
         <v>25</v>
       </c>
       <c r="J200" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K200" t="s">
         <v>13</v>
@@ -11782,16 +11167,16 @@
         <v>177</v>
       </c>
       <c r="C201" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D201" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E201" t="s">
-        <v>645</v>
+        <v>445</v>
       </c>
       <c r="F201" t="s">
-        <v>472</v>
+        <v>272</v>
       </c>
       <c r="G201">
         <v>1973</v>
@@ -11803,7 +11188,7 @@
         <v>25</v>
       </c>
       <c r="J201" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="K201" t="s">
         <v>5</v>
@@ -11817,16 +11202,16 @@
         <v>178</v>
       </c>
       <c r="C202" t="s">
-        <v>794</v>
+        <v>594</v>
       </c>
       <c r="D202" t="s">
-        <v>611</v>
+        <v>411</v>
       </c>
       <c r="E202" t="s">
-        <v>745</v>
+        <v>545</v>
       </c>
       <c r="F202" t="s">
-        <v>802</v>
+        <v>602</v>
       </c>
       <c r="G202">
         <v>1928</v>
@@ -11838,7 +11223,7 @@
         <v>25</v>
       </c>
       <c r="J202" t="s">
-        <v>795</v>
+        <v>595</v>
       </c>
       <c r="K202" t="s">
         <v>15</v>
@@ -11870,19 +11255,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>768</v>
+        <v>568</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>769</v>
+        <v>569</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>770</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>
@@ -11894,7 +11279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -11905,19 +11290,19 @@
         <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>434</v>
+        <v>234</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>780</v>
+        <v>580</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>771</v>
+        <v>571</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>772</v>
+        <v>572</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>773</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
@@ -11938,16 +11323,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>774</v>
+        <v>574</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>775</v>
+        <v>575</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>776</v>
+        <v>576</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>777</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -11967,13 +11352,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>768</v>
+        <v>568</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>778</v>
+        <v>578</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>779</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
